--- a/raw_data/20200818_saline/20200818_Sensor3_Test_60.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_60.xlsx
@@ -1,718 +1,1134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA846F9-3139-4782-BF67-8B5AE18B182F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>53662.851978</v>
+        <v>53662.851977999999</v>
       </c>
       <c r="B2" s="1">
-        <v>14.906348</v>
+        <v>14.906347999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1145.520000</v>
+        <v>1145.52</v>
       </c>
       <c r="D2" s="1">
-        <v>-254.632000</v>
+        <v>-254.63200000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>53673.233740</v>
+        <v>53673.233740000003</v>
       </c>
       <c r="G2" s="1">
-        <v>14.909232</v>
+        <v>14.909231999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1166.310000</v>
+        <v>1166.31</v>
       </c>
       <c r="I2" s="1">
-        <v>-215.157000</v>
+        <v>-215.15700000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>53683.725646</v>
+        <v>53683.725645999999</v>
       </c>
       <c r="L2" s="1">
         <v>14.912146</v>
       </c>
       <c r="M2" s="1">
-        <v>1194.030000</v>
+        <v>1194.03</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.784000</v>
+        <v>-149.78399999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>53694.188224</v>
+        <v>53694.188223999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>14.915052</v>
+        <v>14.915051999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1201.720000</v>
+        <v>1201.72</v>
       </c>
       <c r="S2" s="1">
-        <v>-128.006000</v>
+        <v>-128.006</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>53704.761947</v>
+        <v>53704.761946999999</v>
       </c>
       <c r="V2" s="1">
         <v>14.917989</v>
       </c>
       <c r="W2" s="1">
-        <v>1209.090000</v>
+        <v>1209.0899999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.445000</v>
+        <v>-107.44499999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>53715.220581</v>
+        <v>53715.220581000001</v>
       </c>
       <c r="AA2" s="1">
         <v>14.920895</v>
       </c>
       <c r="AB2" s="1">
-        <v>1216.730000</v>
+        <v>1216.73</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.686100</v>
+        <v>-90.686099999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>53725.794791</v>
       </c>
       <c r="AF2" s="1">
-        <v>14.923832</v>
+        <v>14.923832000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1221.450000</v>
+        <v>1221.45</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.255600</v>
+        <v>-86.255600000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>53736.554041</v>
+        <v>53736.554041000003</v>
       </c>
       <c r="AK2" s="1">
         <v>14.926821</v>
       </c>
       <c r="AL2" s="1">
-        <v>1228.560000</v>
+        <v>1228.56</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.735400</v>
+        <v>-89.735399999999998</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>53747.090026</v>
+        <v>53747.090025999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>14.929747</v>
+        <v>14.929747000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1236.550000</v>
+        <v>1236.55</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.067000</v>
+        <v>-102.06699999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>53758.069964</v>
+        <v>53758.069964000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>14.932797</v>
+        <v>14.932797000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1246.700000</v>
+        <v>1246.7</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.706000</v>
+        <v>-121.706</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>53769.284015</v>
+        <v>53769.284014999997</v>
       </c>
       <c r="AZ2" s="1">
         <v>14.935912</v>
       </c>
       <c r="BA2" s="1">
-        <v>1255.250000</v>
+        <v>1255.25</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.458000</v>
+        <v>-139.458</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>53780.259003</v>
+        <v>53780.259002999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>14.938961</v>
+        <v>14.938961000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1296.030000</v>
+        <v>1296.03</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.095000</v>
+        <v>-222.095</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>53791.194816</v>
+        <v>53791.194816000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>14.941999</v>
+        <v>14.941998999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1366.770000</v>
+        <v>1366.77</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.200000</v>
+        <v>-359.2</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>53801.661395</v>
+        <v>53801.661395000003</v>
       </c>
       <c r="BO2" s="1">
         <v>14.944906</v>
       </c>
       <c r="BP2" s="1">
-        <v>1482.470000</v>
+        <v>1482.47</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-581.995000</v>
+        <v>-581.995</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>53812.013376</v>
+        <v>53812.013376000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>14.947781</v>
+        <v>14.947781000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1616.190000</v>
+        <v>1616.19</v>
       </c>
       <c r="BV2" s="1">
-        <v>-833.513000</v>
+        <v>-833.51300000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>53823.145575</v>
+        <v>53823.145575000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>14.950874</v>
+        <v>14.950874000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1769.720000</v>
+        <v>1769.72</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1105.630000</v>
+        <v>-1105.6300000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>53834.024328</v>
@@ -721,90 +1137,90 @@
         <v>14.953896</v>
       </c>
       <c r="CE2" s="1">
-        <v>2192.580000</v>
+        <v>2192.58</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1764.810000</v>
+        <v>-1764.81</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>53663.235387</v>
+        <v>53663.235387000001</v>
       </c>
       <c r="B3" s="1">
         <v>14.906454</v>
       </c>
       <c r="C3" s="1">
-        <v>1145.610000</v>
+        <v>1145.6099999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-254.827000</v>
+        <v>-254.827</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>53673.637980</v>
+        <v>53673.63798</v>
       </c>
       <c r="G3" s="1">
-        <v>14.909344</v>
+        <v>14.909344000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1166.000000</v>
+        <v>1166</v>
       </c>
       <c r="I3" s="1">
-        <v>-214.387000</v>
+        <v>-214.387</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>53684.084754</v>
+        <v>53684.084754000003</v>
       </c>
       <c r="L3" s="1">
         <v>14.912246</v>
       </c>
       <c r="M3" s="1">
-        <v>1193.920000</v>
+        <v>1193.92</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.844000</v>
+        <v>-149.84399999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>53694.565680</v>
+        <v>53694.56568</v>
       </c>
       <c r="Q3" s="1">
-        <v>14.915157</v>
+        <v>14.915157000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1201.750000</v>
+        <v>1201.75</v>
       </c>
       <c r="S3" s="1">
-        <v>-128.005000</v>
+        <v>-128.005</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>53705.148323</v>
+        <v>53705.148323000001</v>
       </c>
       <c r="V3" s="1">
-        <v>14.918097</v>
+        <v>14.918096999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1209.220000</v>
+        <v>1209.22</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.520000</v>
+        <v>-107.52</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>53715.947752</v>
@@ -813,58 +1229,58 @@
         <v>14.921097</v>
       </c>
       <c r="AB3" s="1">
-        <v>1216.730000</v>
+        <v>1216.73</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.643200</v>
+        <v>-90.643199999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>53726.524903</v>
+        <v>53726.524902999998</v>
       </c>
       <c r="AF3" s="1">
         <v>14.924035</v>
       </c>
       <c r="AG3" s="1">
-        <v>1221.340000</v>
+        <v>1221.3399999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.158200</v>
+        <v>-86.158199999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>53736.896744</v>
+        <v>53736.896743999998</v>
       </c>
       <c r="AK3" s="1">
         <v>14.926916</v>
       </c>
       <c r="AL3" s="1">
-        <v>1228.540000</v>
+        <v>1228.54</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.738900</v>
+        <v>-89.738900000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>53747.452106</v>
+        <v>53747.452105999997</v>
       </c>
       <c r="AP3" s="1">
         <v>14.929848</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1236.590000</v>
+        <v>1236.5899999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.066000</v>
+        <v>-102.066</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>53758.473243</v>
@@ -873,28 +1289,28 @@
         <v>14.932909</v>
       </c>
       <c r="AV3" s="1">
-        <v>1246.720000</v>
+        <v>1246.72</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.726000</v>
+        <v>-121.726</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>53769.952161</v>
+        <v>53769.952161000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>14.936098</v>
+        <v>14.936097999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.423000</v>
+        <v>-139.423</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>53780.707402</v>
@@ -903,422 +1319,422 @@
         <v>14.939085</v>
       </c>
       <c r="BF3" s="1">
-        <v>1296.020000</v>
+        <v>1296.02</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.087000</v>
+        <v>-222.08699999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>53791.305393</v>
+        <v>53791.305393000002</v>
       </c>
       <c r="BJ3" s="1">
         <v>14.942029</v>
       </c>
       <c r="BK3" s="1">
-        <v>1366.670000</v>
+        <v>1366.67</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.270000</v>
+        <v>-359.27</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>53802.083955</v>
+        <v>53802.083955000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>14.945023</v>
+        <v>14.945023000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1482.440000</v>
+        <v>1482.44</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-582.027000</v>
+        <v>-582.02700000000004</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>53812.465717</v>
+        <v>53812.465716999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>14.947907</v>
+        <v>14.947907000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1616.240000</v>
+        <v>1616.24</v>
       </c>
       <c r="BV3" s="1">
-        <v>-833.502000</v>
+        <v>-833.50199999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>53823.608343</v>
       </c>
       <c r="BY3" s="1">
-        <v>14.951002</v>
+        <v>14.951002000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1769.600000</v>
+        <v>1769.6</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1105.850000</v>
+        <v>-1105.8499999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>53834.585335</v>
+        <v>53834.585335000003</v>
       </c>
       <c r="CD3" s="1">
         <v>14.954051</v>
       </c>
       <c r="CE3" s="1">
-        <v>2192.070000</v>
+        <v>2192.0700000000002</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1763.660000</v>
+        <v>-1763.66</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>53663.578157</v>
+        <v>53663.578157000004</v>
       </c>
       <c r="B4" s="1">
         <v>14.906549</v>
       </c>
       <c r="C4" s="1">
-        <v>1145.510000</v>
+        <v>1145.51</v>
       </c>
       <c r="D4" s="1">
-        <v>-254.958000</v>
+        <v>-254.958</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>53673.983691</v>
+        <v>53673.983691000001</v>
       </c>
       <c r="G4" s="1">
-        <v>14.909440</v>
+        <v>14.90944</v>
       </c>
       <c r="H4" s="1">
-        <v>1166.280000</v>
+        <v>1166.28</v>
       </c>
       <c r="I4" s="1">
-        <v>-214.590000</v>
+        <v>-214.59</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>53684.428976</v>
+        <v>53684.428976000003</v>
       </c>
       <c r="L4" s="1">
         <v>14.912341</v>
       </c>
       <c r="M4" s="1">
-        <v>1193.890000</v>
+        <v>1193.8900000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.737000</v>
+        <v>-149.73699999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>53695.263438</v>
+        <v>53695.263438000002</v>
       </c>
       <c r="Q4" s="1">
-        <v>14.915351</v>
+        <v>14.915350999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1201.800000</v>
+        <v>1201.8</v>
       </c>
       <c r="S4" s="1">
-        <v>-128.084000</v>
+        <v>-128.084</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>53705.833794</v>
+        <v>53705.833793999998</v>
       </c>
       <c r="V4" s="1">
-        <v>14.918287</v>
+        <v>14.918286999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1209.280000</v>
+        <v>1209.28</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.363000</v>
+        <v>-107.363</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>53716.298388</v>
+        <v>53716.298388000003</v>
       </c>
       <c r="AA4" s="1">
         <v>14.921194</v>
       </c>
       <c r="AB4" s="1">
-        <v>1216.860000</v>
+        <v>1216.8599999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.648900</v>
+        <v>-90.648899999999998</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>53726.868133</v>
+        <v>53726.868133000004</v>
       </c>
       <c r="AF4" s="1">
-        <v>14.924130</v>
+        <v>14.92413</v>
       </c>
       <c r="AG4" s="1">
-        <v>1221.250000</v>
+        <v>1221.25</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.203600</v>
+        <v>-86.203599999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>53737.242978</v>
+        <v>53737.242978000002</v>
       </c>
       <c r="AK4" s="1">
         <v>14.927012</v>
       </c>
       <c r="AL4" s="1">
-        <v>1228.520000</v>
+        <v>1228.52</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.783700</v>
+        <v>-89.783699999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>53748.121241</v>
+        <v>53748.121241000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>14.930034</v>
+        <v>14.930033999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1236.580000</v>
+        <v>1236.58</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.065000</v>
+        <v>-102.065</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>53759.144796</v>
       </c>
       <c r="AU4" s="1">
-        <v>14.933096</v>
+        <v>14.933096000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1246.690000</v>
+        <v>1246.69</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.715000</v>
+        <v>-121.715</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>53770.371260</v>
+        <v>53770.37126</v>
       </c>
       <c r="AZ4" s="1">
         <v>14.936214</v>
       </c>
       <c r="BA4" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.447000</v>
+        <v>-139.447</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>53780.981198</v>
+        <v>53780.981198000001</v>
       </c>
       <c r="BE4" s="1">
         <v>14.939161</v>
       </c>
       <c r="BF4" s="1">
-        <v>1296.010000</v>
+        <v>1296.01</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.086000</v>
+        <v>-222.08600000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>53791.680368</v>
+        <v>53791.680368000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>14.942133</v>
       </c>
       <c r="BK4" s="1">
-        <v>1366.660000</v>
+        <v>1366.66</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.150000</v>
+        <v>-359.15</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>53802.484721</v>
+        <v>53802.484721000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>14.945135</v>
+        <v>14.945135000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1482.470000</v>
+        <v>1482.47</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-581.993000</v>
+        <v>-581.99300000000005</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>53812.892277</v>
+        <v>53812.892276999999</v>
       </c>
       <c r="BT4" s="1">
         <v>14.948026</v>
       </c>
       <c r="BU4" s="1">
-        <v>1616.210000</v>
+        <v>1616.21</v>
       </c>
       <c r="BV4" s="1">
-        <v>-833.483000</v>
+        <v>-833.48299999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>53824.055269</v>
+        <v>53824.055268999997</v>
       </c>
       <c r="BY4" s="1">
         <v>14.951126</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1769.730000</v>
+        <v>1769.73</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1105.560000</v>
+        <v>-1105.56</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>53835.104614</v>
+        <v>53835.104614000003</v>
       </c>
       <c r="CD4" s="1">
         <v>14.954196</v>
       </c>
       <c r="CE4" s="1">
-        <v>2189.980000</v>
+        <v>2189.98</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1765.240000</v>
+        <v>-1765.24</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>53663.920361</v>
+        <v>53663.920360999997</v>
       </c>
       <c r="B5" s="1">
-        <v>14.906645</v>
+        <v>14.906644999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1145.530000</v>
+        <v>1145.53</v>
       </c>
       <c r="D5" s="1">
-        <v>-254.829000</v>
+        <v>-254.82900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>53674.325436</v>
+        <v>53674.325435999999</v>
       </c>
       <c r="G5" s="1">
         <v>14.909535</v>
       </c>
       <c r="H5" s="1">
-        <v>1166.450000</v>
+        <v>1166.45</v>
       </c>
       <c r="I5" s="1">
-        <v>-214.375000</v>
+        <v>-214.375</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>53685.121852</v>
+        <v>53685.121851999997</v>
       </c>
       <c r="L5" s="1">
-        <v>14.912534</v>
+        <v>14.912534000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1193.920000</v>
+        <v>1193.92</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.882000</v>
+        <v>-149.88200000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>53695.611254</v>
+        <v>53695.611254000003</v>
       </c>
       <c r="Q5" s="1">
         <v>14.915448</v>
       </c>
       <c r="R5" s="1">
-        <v>1201.730000</v>
+        <v>1201.73</v>
       </c>
       <c r="S5" s="1">
-        <v>-128.071000</v>
+        <v>-128.071</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>53706.177057</v>
+        <v>53706.177057000001</v>
       </c>
       <c r="V5" s="1">
         <v>14.918383</v>
       </c>
       <c r="W5" s="1">
-        <v>1209.100000</v>
+        <v>1209.0999999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.375000</v>
+        <v>-107.375</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>53716.646083</v>
@@ -1327,103 +1743,103 @@
         <v>14.921291</v>
       </c>
       <c r="AB5" s="1">
-        <v>1216.780000</v>
+        <v>1216.78</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.626100</v>
+        <v>-90.626099999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>53727.209882</v>
+        <v>53727.209882000003</v>
       </c>
       <c r="AF5" s="1">
         <v>14.924225</v>
       </c>
       <c r="AG5" s="1">
-        <v>1221.350000</v>
+        <v>1221.3499999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.249500</v>
+        <v>-86.249499999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>53737.902631</v>
+        <v>53737.902630999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>14.927195</v>
+        <v>14.927194999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1228.540000</v>
+        <v>1228.54</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.762900</v>
+        <v>-89.762900000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>53748.558474</v>
+        <v>53748.558473999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>14.930155</v>
+        <v>14.930154999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1236.610000</v>
+        <v>1236.6099999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.096000</v>
+        <v>-102.096</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>53759.601611</v>
+        <v>53759.601610999998</v>
       </c>
       <c r="AU5" s="1">
         <v>14.933223</v>
       </c>
       <c r="AV5" s="1">
-        <v>1246.680000</v>
+        <v>1246.68</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.738000</v>
+        <v>-121.738</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>53770.747709</v>
+        <v>53770.747709000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>14.936319</v>
+        <v>14.936318999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1255.250000</v>
+        <v>1255.25</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.429000</v>
+        <v>-139.429</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>53781.343741</v>
+        <v>53781.343740999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>14.939262</v>
+        <v>14.939261999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1296.010000</v>
+        <v>1296.01</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.075000</v>
+        <v>-222.07499999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>53792.054592</v>
@@ -1432,255 +1848,255 @@
         <v>14.942237</v>
       </c>
       <c r="BK5" s="1">
-        <v>1366.740000</v>
+        <v>1366.74</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.197000</v>
+        <v>-359.197</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>53802.906849</v>
+        <v>53802.906848999999</v>
       </c>
       <c r="BO5" s="1">
         <v>14.945252</v>
       </c>
       <c r="BP5" s="1">
-        <v>1482.430000</v>
+        <v>1482.43</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-581.982000</v>
+        <v>-581.98199999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>53813.326803</v>
+        <v>53813.326803000004</v>
       </c>
       <c r="BT5" s="1">
-        <v>14.948146</v>
+        <v>14.948145999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1616.220000</v>
+        <v>1616.22</v>
       </c>
       <c r="BV5" s="1">
-        <v>-833.458000</v>
+        <v>-833.45799999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>53824.488281</v>
+        <v>53824.488280999998</v>
       </c>
       <c r="BY5" s="1">
         <v>14.951247</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1769.660000</v>
+        <v>1769.66</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1105.730000</v>
+        <v>-1105.73</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>53835.643270</v>
+        <v>53835.64327</v>
       </c>
       <c r="CD5" s="1">
         <v>14.954345</v>
       </c>
       <c r="CE5" s="1">
-        <v>2192.680000</v>
+        <v>2192.6799999999998</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1764.930000</v>
+        <v>-1764.93</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>53664.602360</v>
+        <v>53664.602359999997</v>
       </c>
       <c r="B6" s="1">
         <v>14.906834</v>
       </c>
       <c r="C6" s="1">
-        <v>1145.590000</v>
+        <v>1145.5899999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-254.640000</v>
+        <v>-254.64</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>53675.015370</v>
+        <v>53675.015370000001</v>
       </c>
       <c r="G6" s="1">
-        <v>14.909726</v>
+        <v>14.909725999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1167.020000</v>
+        <v>1167.02</v>
       </c>
       <c r="I6" s="1">
-        <v>-214.033000</v>
+        <v>-214.03299999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>53685.467070</v>
+        <v>53685.467069999999</v>
       </c>
       <c r="L6" s="1">
-        <v>14.912630</v>
+        <v>14.91263</v>
       </c>
       <c r="M6" s="1">
-        <v>1193.850000</v>
+        <v>1193.8499999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.616000</v>
+        <v>-149.61600000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>53695.959934</v>
+        <v>53695.959933999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>14.915544</v>
+        <v>14.915544000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1201.740000</v>
+        <v>1201.74</v>
       </c>
       <c r="S6" s="1">
-        <v>-128.011000</v>
+        <v>-128.011</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>53706.519761</v>
+        <v>53706.519761000003</v>
       </c>
       <c r="V6" s="1">
         <v>14.918478</v>
       </c>
       <c r="W6" s="1">
-        <v>1209.200000</v>
+        <v>1209.2</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.501000</v>
+        <v>-107.501</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>53717.303817</v>
       </c>
       <c r="AA6" s="1">
-        <v>14.921473</v>
+        <v>14.921473000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1216.760000</v>
+        <v>1216.76</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.563200</v>
+        <v>-90.563199999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>53727.861621</v>
+        <v>53727.861620999996</v>
       </c>
       <c r="AF6" s="1">
-        <v>14.924406</v>
+        <v>14.924405999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1221.390000</v>
+        <v>1221.3900000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.108300</v>
+        <v>-86.1083</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>53738.289510</v>
+        <v>53738.289510000002</v>
       </c>
       <c r="AK6" s="1">
         <v>14.927303</v>
       </c>
       <c r="AL6" s="1">
-        <v>1228.540000</v>
+        <v>1228.54</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.741900</v>
+        <v>-89.741900000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>53748.920296</v>
+        <v>53748.920295999997</v>
       </c>
       <c r="AP6" s="1">
         <v>14.930256</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1236.580000</v>
+        <v>1236.58</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.102000</v>
+        <v>-102.102</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>53759.967658</v>
+        <v>53759.967658000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>14.933324</v>
+        <v>14.933324000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1246.680000</v>
+        <v>1246.68</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.760000</v>
+        <v>-121.76</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>53771.128170</v>
+        <v>53771.128170000004</v>
       </c>
       <c r="AZ6" s="1">
-        <v>14.936424</v>
+        <v>14.936424000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1255.270000</v>
+        <v>1255.27</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.437000</v>
+        <v>-139.43700000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>53781.774304</v>
+        <v>53781.774303999999</v>
       </c>
       <c r="BE6" s="1">
         <v>14.939382</v>
       </c>
       <c r="BF6" s="1">
-        <v>1296.000000</v>
+        <v>1296</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.117000</v>
+        <v>-222.11699999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>53792.475455</v>
@@ -1689,557 +2105,557 @@
         <v>14.942354</v>
       </c>
       <c r="BK6" s="1">
-        <v>1366.710000</v>
+        <v>1366.71</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.255000</v>
+        <v>-359.255</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>53803.304643</v>
+        <v>53803.304643000003</v>
       </c>
       <c r="BO6" s="1">
-        <v>14.945362</v>
+        <v>14.945361999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1482.470000</v>
+        <v>1482.47</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-582.004000</v>
+        <v>-582.00400000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>53813.720111</v>
+        <v>53813.720111000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>14.948256</v>
+        <v>14.948256000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1616.290000</v>
+        <v>1616.29</v>
       </c>
       <c r="BV6" s="1">
-        <v>-833.450000</v>
+        <v>-833.45</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>53824.909875</v>
+        <v>53824.909874999998</v>
       </c>
       <c r="BY6" s="1">
         <v>14.951364</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1769.690000</v>
+        <v>1769.69</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1105.820000</v>
+        <v>-1105.82</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>53836.184267</v>
+        <v>53836.184266999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>14.954496</v>
+        <v>14.954496000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2190.350000</v>
+        <v>2190.35</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1764.340000</v>
+        <v>-1764.34</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>53664.944627</v>
+        <v>53664.944626999997</v>
       </c>
       <c r="B7" s="1">
         <v>14.906929</v>
       </c>
       <c r="C7" s="1">
-        <v>1145.470000</v>
+        <v>1145.47</v>
       </c>
       <c r="D7" s="1">
-        <v>-254.727000</v>
+        <v>-254.727</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>53675.361578</v>
+        <v>53675.361577999996</v>
       </c>
       <c r="G7" s="1">
-        <v>14.909823</v>
+        <v>14.909822999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1166.860000</v>
+        <v>1166.8599999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-214.415000</v>
+        <v>-214.41499999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>53685.811788</v>
+        <v>53685.811787999999</v>
       </c>
       <c r="L7" s="1">
         <v>14.912725</v>
       </c>
       <c r="M7" s="1">
-        <v>1193.850000</v>
+        <v>1193.8499999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.752000</v>
+        <v>-149.75200000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>53696.615149</v>
+        <v>53696.615148999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>14.915726</v>
+        <v>14.915725999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1201.660000</v>
+        <v>1201.6600000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.998000</v>
+        <v>-127.998</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>53707.166047</v>
+        <v>53707.166046999999</v>
       </c>
       <c r="V7" s="1">
         <v>14.918657</v>
       </c>
       <c r="W7" s="1">
-        <v>1209.340000</v>
+        <v>1209.3399999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.560000</v>
+        <v>-107.56</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>53717.692678</v>
+        <v>53717.692677999999</v>
       </c>
       <c r="AA7" s="1">
         <v>14.921581</v>
       </c>
       <c r="AB7" s="1">
-        <v>1216.700000</v>
+        <v>1216.7</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.649500</v>
+        <v>-90.649500000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>53728.241569</v>
+        <v>53728.241568999998</v>
       </c>
       <c r="AF7" s="1">
         <v>14.924512</v>
       </c>
       <c r="AG7" s="1">
-        <v>1221.390000</v>
+        <v>1221.3900000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.255300</v>
+        <v>-86.255300000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>53738.640183</v>
+        <v>53738.640183000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>14.927400</v>
+        <v>14.9274</v>
       </c>
       <c r="AL7" s="1">
-        <v>1228.620000</v>
+        <v>1228.6199999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.671700</v>
+        <v>-89.671700000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>53749.281847</v>
+        <v>53749.281846999998</v>
       </c>
       <c r="AP7" s="1">
         <v>14.930356</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1236.580000</v>
+        <v>1236.58</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.089000</v>
+        <v>-102.089</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>53760.330730</v>
+        <v>53760.330730000001</v>
       </c>
       <c r="AU7" s="1">
         <v>14.933425</v>
       </c>
       <c r="AV7" s="1">
-        <v>1246.670000</v>
+        <v>1246.67</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.721000</v>
+        <v>-121.721</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>53771.543326</v>
+        <v>53771.543325999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>14.936540</v>
+        <v>14.936540000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.414000</v>
+        <v>-139.41399999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>53782.063969</v>
+        <v>53782.063969000003</v>
       </c>
       <c r="BE7" s="1">
-        <v>14.939462</v>
+        <v>14.939462000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1295.970000</v>
+        <v>1295.97</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.126000</v>
+        <v>-222.126</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>53792.802350</v>
+        <v>53792.802349999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>14.942445</v>
+        <v>14.942444999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1366.710000</v>
+        <v>1366.71</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.217000</v>
+        <v>-359.21699999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>53803.725245</v>
+        <v>53803.725245000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>14.945479</v>
+        <v>14.945479000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1482.440000</v>
+        <v>1482.44</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-582.055000</v>
+        <v>-582.05499999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>53814.138723</v>
+        <v>53814.138722999996</v>
       </c>
       <c r="BT7" s="1">
-        <v>14.948372</v>
+        <v>14.948372000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1616.330000</v>
+        <v>1616.33</v>
       </c>
       <c r="BV7" s="1">
-        <v>-833.396000</v>
+        <v>-833.39599999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>53825.332469</v>
+        <v>53825.332469000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>14.951481</v>
+        <v>14.951480999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1769.830000</v>
+        <v>1769.83</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1105.710000</v>
+        <v>-1105.71</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>53836.724052</v>
+        <v>53836.724051999998</v>
       </c>
       <c r="CD7" s="1">
         <v>14.954646</v>
       </c>
       <c r="CE7" s="1">
-        <v>2191.640000</v>
+        <v>2191.64</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1766.200000</v>
+        <v>-1766.2</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>53665.284360</v>
+        <v>53665.284359999998</v>
       </c>
       <c r="B8" s="1">
-        <v>14.907023</v>
+        <v>14.907023000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1145.540000</v>
+        <v>1145.54</v>
       </c>
       <c r="D8" s="1">
-        <v>-254.864000</v>
+        <v>-254.864</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>53676.009354</v>
+        <v>53676.009354000002</v>
       </c>
       <c r="G8" s="1">
         <v>14.910003</v>
       </c>
       <c r="H8" s="1">
-        <v>1165.930000</v>
+        <v>1165.93</v>
       </c>
       <c r="I8" s="1">
-        <v>-214.143000</v>
+        <v>-214.143</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>53686.472955</v>
+        <v>53686.472954999997</v>
       </c>
       <c r="L8" s="1">
-        <v>14.912909</v>
+        <v>14.912909000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1194.000000</v>
+        <v>1194</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.539000</v>
+        <v>-149.53899999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>53697.004013</v>
+        <v>53697.004012999998</v>
       </c>
       <c r="Q8" s="1">
         <v>14.915834</v>
       </c>
       <c r="R8" s="1">
-        <v>1201.740000</v>
+        <v>1201.74</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.970000</v>
+        <v>-127.97</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>53707.550975</v>
+        <v>53707.550974999998</v>
       </c>
       <c r="V8" s="1">
-        <v>14.918764</v>
+        <v>14.918763999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1209.240000</v>
+        <v>1209.24</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.596000</v>
+        <v>-107.596</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>53718.037858</v>
+        <v>53718.037858000003</v>
       </c>
       <c r="AA8" s="1">
-        <v>14.921677</v>
+        <v>14.921677000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1216.790000</v>
+        <v>1216.79</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.616500</v>
+        <v>-90.616500000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>53728.583335</v>
+        <v>53728.583335000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>14.924606</v>
+        <v>14.924606000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1221.450000</v>
+        <v>1221.45</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.270000</v>
+        <v>-86.27</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>53738.986391</v>
+        <v>53738.986390999999</v>
       </c>
       <c r="AK8" s="1">
         <v>14.927496</v>
       </c>
       <c r="AL8" s="1">
-        <v>1228.610000</v>
+        <v>1228.6099999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.718900</v>
+        <v>-89.718900000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>53749.705431</v>
+        <v>53749.705431000002</v>
       </c>
       <c r="AP8" s="1">
         <v>14.930474</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1236.570000</v>
+        <v>1236.57</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.099000</v>
+        <v>-102.099</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>53760.758282</v>
+        <v>53760.758282000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>14.933544</v>
+        <v>14.933543999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1246.680000</v>
+        <v>1246.68</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.729000</v>
+        <v>-121.729</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>53771.843867</v>
+        <v>53771.843867000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>14.936623</v>
+        <v>14.936623000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.418000</v>
+        <v>-139.41800000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>53782.426542</v>
+        <v>53782.426542000001</v>
       </c>
       <c r="BE8" s="1">
         <v>14.939563</v>
       </c>
       <c r="BF8" s="1">
-        <v>1296.000000</v>
+        <v>1296</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.123000</v>
+        <v>-222.12299999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>53793.209566</v>
+        <v>53793.209565999998</v>
       </c>
       <c r="BJ8" s="1">
         <v>14.942558</v>
       </c>
       <c r="BK8" s="1">
-        <v>1366.740000</v>
+        <v>1366.74</v>
       </c>
       <c r="BL8" s="1">
-        <v>-359.223000</v>
+        <v>-359.22300000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>53804.123008</v>
+        <v>53804.123008000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>14.945590</v>
+        <v>14.945589999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1482.460000</v>
+        <v>1482.46</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-581.984000</v>
+        <v>-581.98400000000004</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>53814.884209</v>
+        <v>53814.884209000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>14.948579</v>
+        <v>14.948579000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1616.370000</v>
+        <v>1616.37</v>
       </c>
       <c r="BV8" s="1">
-        <v>-833.318000</v>
+        <v>-833.31799999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>53825.755523</v>
@@ -2248,210 +2664,210 @@
         <v>14.951599</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1769.670000</v>
+        <v>1769.67</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1105.740000</v>
+        <v>-1105.74</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>53837.265223</v>
+        <v>53837.265223000002</v>
       </c>
       <c r="CD8" s="1">
         <v>14.954796</v>
       </c>
       <c r="CE8" s="1">
-        <v>2191.370000</v>
+        <v>2191.37</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1763.440000</v>
+        <v>-1763.44</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>53665.949990</v>
+        <v>53665.949990000001</v>
       </c>
       <c r="B9" s="1">
-        <v>14.907208</v>
+        <v>14.907208000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1145.400000</v>
+        <v>1145.4000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-254.829000</v>
+        <v>-254.82900000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>53676.393752</v>
+        <v>53676.393752000004</v>
       </c>
       <c r="G9" s="1">
         <v>14.910109</v>
       </c>
       <c r="H9" s="1">
-        <v>1166.040000</v>
+        <v>1166.04</v>
       </c>
       <c r="I9" s="1">
-        <v>-214.265000</v>
+        <v>-214.26499999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>53686.849946</v>
+        <v>53686.849946000002</v>
       </c>
       <c r="L9" s="1">
         <v>14.913014</v>
       </c>
       <c r="M9" s="1">
-        <v>1194.100000</v>
+        <v>1194.0999999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.839000</v>
+        <v>-149.839</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>53697.352700</v>
+        <v>53697.352700000003</v>
       </c>
       <c r="Q9" s="1">
         <v>14.915931</v>
       </c>
       <c r="R9" s="1">
-        <v>1201.780000</v>
+        <v>1201.78</v>
       </c>
       <c r="S9" s="1">
-        <v>-128.097000</v>
+        <v>-128.09700000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>53707.895168</v>
+        <v>53707.895168000003</v>
       </c>
       <c r="V9" s="1">
-        <v>14.918860</v>
+        <v>14.91886</v>
       </c>
       <c r="W9" s="1">
-        <v>1209.270000</v>
+        <v>1209.27</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.407000</v>
+        <v>-107.407</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>53718.387537</v>
+        <v>53718.387537000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>14.921774</v>
+        <v>14.921773999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1216.770000</v>
+        <v>1216.77</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.651000</v>
+        <v>-90.650999999999996</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>53729.007410</v>
+        <v>53729.007409999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>14.924724</v>
+        <v>14.924723999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1221.380000</v>
+        <v>1221.3800000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.276500</v>
+        <v>-86.276499999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>53739.408486</v>
       </c>
       <c r="AK9" s="1">
-        <v>14.927613</v>
+        <v>14.927612999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1228.590000</v>
+        <v>1228.5899999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.708500</v>
+        <v>-89.708500000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>53750.000583</v>
+        <v>53750.000583000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>14.930556</v>
+        <v>14.930555999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1236.590000</v>
+        <v>1236.5899999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.098000</v>
+        <v>-102.098</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>53761.059389</v>
+        <v>53761.059389000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>14.933628</v>
+        <v>14.933628000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1246.690000</v>
+        <v>1246.69</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.720000</v>
+        <v>-121.72</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>53772.203993</v>
+        <v>53772.203993000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>14.936723</v>
+        <v>14.936723000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.403000</v>
+        <v>-139.40299999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>53782.789579</v>
+        <v>53782.789578999997</v>
       </c>
       <c r="BE9" s="1">
         <v>14.939664</v>
       </c>
       <c r="BF9" s="1">
-        <v>1296.010000</v>
+        <v>1296.01</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.088000</v>
+        <v>-222.08799999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>53793.584509</v>
@@ -2460,210 +2876,210 @@
         <v>14.942662</v>
       </c>
       <c r="BK9" s="1">
-        <v>1366.680000</v>
+        <v>1366.68</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.199000</v>
+        <v>-359.19900000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>53804.540174</v>
+        <v>53804.540174000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>14.945706</v>
+        <v>14.945705999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1482.440000</v>
+        <v>1482.44</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-582.022000</v>
+        <v>-582.02200000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>53815.406497</v>
+        <v>53815.406497000004</v>
       </c>
       <c r="BT9" s="1">
         <v>14.948724</v>
       </c>
       <c r="BU9" s="1">
-        <v>1616.420000</v>
+        <v>1616.42</v>
       </c>
       <c r="BV9" s="1">
-        <v>-833.265000</v>
+        <v>-833.26499999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>53826.172690</v>
+        <v>53826.172689999999</v>
       </c>
       <c r="BY9" s="1">
         <v>14.951715</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1769.730000</v>
+        <v>1769.73</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1105.940000</v>
+        <v>-1105.94</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>53837.803877</v>
+        <v>53837.803876999998</v>
       </c>
       <c r="CD9" s="1">
         <v>14.954946</v>
       </c>
       <c r="CE9" s="1">
-        <v>2190.370000</v>
+        <v>2190.37</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1765.820000</v>
+        <v>-1765.82</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>53666.311574</v>
+        <v>53666.311573999999</v>
       </c>
       <c r="B10" s="1">
         <v>14.907309</v>
       </c>
       <c r="C10" s="1">
-        <v>1145.530000</v>
+        <v>1145.53</v>
       </c>
       <c r="D10" s="1">
-        <v>-255.199000</v>
+        <v>-255.19900000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>53676.738472</v>
+        <v>53676.738471999997</v>
       </c>
       <c r="G10" s="1">
-        <v>14.910205</v>
+        <v>14.910204999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1165.770000</v>
+        <v>1165.77</v>
       </c>
       <c r="I10" s="1">
-        <v>-214.816000</v>
+        <v>-214.816</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>53687.195657</v>
+        <v>53687.195656999997</v>
       </c>
       <c r="L10" s="1">
-        <v>14.913110</v>
+        <v>14.91311</v>
       </c>
       <c r="M10" s="1">
-        <v>1194.070000</v>
+        <v>1194.07</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.846000</v>
+        <v>-149.846</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>53697.701884</v>
+        <v>53697.701884000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>14.916028</v>
+        <v>14.916028000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1201.740000</v>
+        <v>1201.74</v>
       </c>
       <c r="S10" s="1">
-        <v>-128.015000</v>
+        <v>-128.01499999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>53708.243855</v>
+        <v>53708.243855000001</v>
       </c>
       <c r="V10" s="1">
-        <v>14.918957</v>
+        <v>14.918957000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1209.150000</v>
+        <v>1209.1500000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.340000</v>
+        <v>-107.34</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>53718.814096</v>
+        <v>53718.814096000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>14.921893</v>
+        <v>14.921893000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1216.750000</v>
+        <v>1216.75</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.644000</v>
+        <v>-90.644000000000005</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>53729.272738</v>
       </c>
       <c r="AF10" s="1">
-        <v>14.924798</v>
+        <v>14.924797999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1221.350000</v>
+        <v>1221.3499999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.247300</v>
+        <v>-86.247299999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>53739.686244</v>
+        <v>53739.686243999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>14.927691</v>
+        <v>14.927690999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1228.590000</v>
+        <v>1228.5899999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.743700</v>
+        <v>-89.743700000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>53750.361143</v>
+        <v>53750.361143000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>14.930656</v>
+        <v>14.930656000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1236.580000</v>
+        <v>1236.58</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.092000</v>
+        <v>-102.092</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>53761.424905</v>
@@ -2672,58 +3088,58 @@
         <v>14.933729</v>
       </c>
       <c r="AV10" s="1">
-        <v>1246.700000</v>
+        <v>1246.7</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.716000</v>
+        <v>-121.71599999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>53772.562130</v>
+        <v>53772.562129999998</v>
       </c>
       <c r="AZ10" s="1">
         <v>14.936823</v>
       </c>
       <c r="BA10" s="1">
-        <v>1255.260000</v>
+        <v>1255.26</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.421000</v>
+        <v>-139.42099999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>53783.513244</v>
+        <v>53783.513244000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>14.939865</v>
+        <v>14.939864999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1295.990000</v>
+        <v>1295.99</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.072000</v>
+        <v>-222.072</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>53794.334460</v>
+        <v>53794.334459999998</v>
       </c>
       <c r="BJ10" s="1">
         <v>14.942871</v>
       </c>
       <c r="BK10" s="1">
-        <v>1366.740000</v>
+        <v>1366.74</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.287000</v>
+        <v>-359.28699999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>53804.939456</v>
@@ -2732,28 +3148,28 @@
         <v>14.945817</v>
       </c>
       <c r="BP10" s="1">
-        <v>1482.450000</v>
+        <v>1482.45</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-581.990000</v>
+        <v>-581.99</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>53815.835040</v>
+        <v>53815.835039999998</v>
       </c>
       <c r="BT10" s="1">
         <v>14.948843</v>
       </c>
       <c r="BU10" s="1">
-        <v>1616.490000</v>
+        <v>1616.49</v>
       </c>
       <c r="BV10" s="1">
-        <v>-833.213000</v>
+        <v>-833.21299999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>53826.628483</v>
@@ -2762,270 +3178,270 @@
         <v>14.951841</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1769.740000</v>
+        <v>1769.74</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1105.750000</v>
+        <v>-1105.75</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>53838.648067</v>
+        <v>53838.648067000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>14.955180</v>
+        <v>14.95518</v>
       </c>
       <c r="CE10" s="1">
-        <v>2190.750000</v>
+        <v>2190.75</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1763.680000</v>
+        <v>-1763.68</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>53666.654805</v>
+        <v>53666.654804999998</v>
       </c>
       <c r="B11" s="1">
         <v>14.907404</v>
       </c>
       <c r="C11" s="1">
-        <v>1145.320000</v>
+        <v>1145.32</v>
       </c>
       <c r="D11" s="1">
-        <v>-255.272000</v>
+        <v>-255.27199999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>53677.082200</v>
+        <v>53677.082199999997</v>
       </c>
       <c r="G11" s="1">
         <v>14.910301</v>
       </c>
       <c r="H11" s="1">
-        <v>1166.550000</v>
+        <v>1166.55</v>
       </c>
       <c r="I11" s="1">
-        <v>-214.689000</v>
+        <v>-214.68899999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>53687.540874</v>
+        <v>53687.540873999998</v>
       </c>
       <c r="L11" s="1">
-        <v>14.913206</v>
+        <v>14.913206000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1193.940000</v>
+        <v>1193.94</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.902000</v>
+        <v>-149.90199999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>53698.118065</v>
+        <v>53698.118065000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>14.916144</v>
+        <v>14.916143999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1201.700000</v>
+        <v>1201.7</v>
       </c>
       <c r="S11" s="1">
-        <v>-128.058000</v>
+        <v>-128.05799999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>53708.667968</v>
+        <v>53708.667968000002</v>
       </c>
       <c r="V11" s="1">
         <v>14.919074</v>
       </c>
       <c r="W11" s="1">
-        <v>1209.160000</v>
+        <v>1209.1600000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.393000</v>
+        <v>-107.393</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>53719.092353</v>
       </c>
       <c r="AA11" s="1">
-        <v>14.921970</v>
+        <v>14.92197</v>
       </c>
       <c r="AB11" s="1">
-        <v>1216.750000</v>
+        <v>1216.75</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.655400</v>
+        <v>-90.6554</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>53729.617986</v>
+        <v>53729.617985999997</v>
       </c>
       <c r="AF11" s="1">
         <v>14.924894</v>
       </c>
       <c r="AG11" s="1">
-        <v>1221.370000</v>
+        <v>1221.3699999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.202700</v>
+        <v>-86.202699999999993</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>53740.023524</v>
+        <v>53740.023523999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>14.927784</v>
+        <v>14.927784000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1228.590000</v>
+        <v>1228.5899999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.699100</v>
+        <v>-89.699100000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>53750.722726</v>
       </c>
       <c r="AP11" s="1">
-        <v>14.930756</v>
+        <v>14.930756000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1236.570000</v>
+        <v>1236.57</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.103000</v>
+        <v>-102.10299999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>53761.788502</v>
+        <v>53761.788502000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>14.933830</v>
+        <v>14.93383</v>
       </c>
       <c r="AV11" s="1">
-        <v>1246.690000</v>
+        <v>1246.69</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.700000</v>
+        <v>-121.7</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>53773.278330</v>
+        <v>53773.278330000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>14.937022</v>
+        <v>14.937022000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1255.250000</v>
+        <v>1255.25</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.449000</v>
+        <v>-139.44900000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>53783.871851</v>
+        <v>53783.871851000004</v>
       </c>
       <c r="BE11" s="1">
         <v>14.939964</v>
       </c>
       <c r="BF11" s="1">
-        <v>1296.000000</v>
+        <v>1296</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.115000</v>
+        <v>-222.11500000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>53794.710428</v>
+        <v>53794.710427999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>14.942975</v>
+        <v>14.942975000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1366.650000</v>
+        <v>1366.65</v>
       </c>
       <c r="BL11" s="1">
-        <v>-359.235000</v>
+        <v>-359.23500000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>53805.360553</v>
+        <v>53805.360552999999</v>
       </c>
       <c r="BO11" s="1">
         <v>14.945933</v>
       </c>
       <c r="BP11" s="1">
-        <v>1482.490000</v>
+        <v>1482.49</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-581.971000</v>
+        <v>-581.971</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>53816.563689</v>
+        <v>53816.563689000002</v>
       </c>
       <c r="BT11" s="1">
         <v>14.949045</v>
       </c>
       <c r="BU11" s="1">
-        <v>1616.390000</v>
+        <v>1616.39</v>
       </c>
       <c r="BV11" s="1">
-        <v>-833.162000</v>
+        <v>-833.16200000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>53827.382898</v>
+        <v>53827.382898000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>14.952051</v>
+        <v>14.952051000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1769.670000</v>
+        <v>1769.67</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1105.660000</v>
+        <v>-1105.6600000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>53838.882674</v>
@@ -3034,16 +3450,16 @@
         <v>14.955245</v>
       </c>
       <c r="CE11" s="1">
-        <v>2190.520000</v>
+        <v>2190.52</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1763.560000</v>
+        <v>-1763.56</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>53666.997076</v>
       </c>
@@ -3051,163 +3467,163 @@
         <v>14.907499</v>
       </c>
       <c r="C12" s="1">
-        <v>1145.490000</v>
+        <v>1145.49</v>
       </c>
       <c r="D12" s="1">
-        <v>-255.281000</v>
+        <v>-255.28100000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>53677.512761</v>
+        <v>53677.512760999998</v>
       </c>
       <c r="G12" s="1">
-        <v>14.910420</v>
+        <v>14.91042</v>
       </c>
       <c r="H12" s="1">
-        <v>1166.780000</v>
+        <v>1166.78</v>
       </c>
       <c r="I12" s="1">
-        <v>-214.635000</v>
+        <v>-214.63499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>53687.960992</v>
       </c>
       <c r="L12" s="1">
-        <v>14.913322</v>
+        <v>14.913322000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1194.050000</v>
+        <v>1194.05</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.609000</v>
+        <v>-149.60900000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>53698.409215</v>
       </c>
       <c r="Q12" s="1">
-        <v>14.916225</v>
+        <v>14.916225000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1201.640000</v>
+        <v>1201.6400000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.984000</v>
+        <v>-127.98399999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>53708.946231</v>
+        <v>53708.946231000002</v>
       </c>
       <c r="V12" s="1">
         <v>14.919152</v>
       </c>
       <c r="W12" s="1">
-        <v>1209.300000</v>
+        <v>1209.3</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.296000</v>
+        <v>-107.29600000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>53719.440545</v>
+        <v>53719.440544999998</v>
       </c>
       <c r="AA12" s="1">
         <v>14.922067</v>
       </c>
       <c r="AB12" s="1">
-        <v>1216.730000</v>
+        <v>1216.73</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.623100</v>
+        <v>-90.623099999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>53729.961683</v>
+        <v>53729.961683000001</v>
       </c>
       <c r="AF12" s="1">
         <v>14.924989</v>
       </c>
       <c r="AG12" s="1">
-        <v>1221.380000</v>
+        <v>1221.3800000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.244700</v>
+        <v>-86.244699999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>53740.383646</v>
+        <v>53740.383646000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>14.927884</v>
+        <v>14.927884000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1228.590000</v>
+        <v>1228.5899999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.680700</v>
+        <v>-89.680700000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>53751.450393</v>
+        <v>53751.450392999999</v>
       </c>
       <c r="AP12" s="1">
         <v>14.930958</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1236.580000</v>
+        <v>1236.58</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.091000</v>
+        <v>-102.09099999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>53762.685773</v>
+        <v>53762.685772999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>14.934079</v>
+        <v>14.934079000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.702000</v>
+        <v>-121.702</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>53773.639387</v>
+        <v>53773.639387000003</v>
       </c>
       <c r="AZ12" s="1">
         <v>14.937122</v>
       </c>
       <c r="BA12" s="1">
-        <v>1255.260000</v>
+        <v>1255.26</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.402000</v>
+        <v>-139.40199999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>53784.231946</v>
@@ -3216,348 +3632,348 @@
         <v>14.940064</v>
       </c>
       <c r="BF12" s="1">
-        <v>1296.020000</v>
+        <v>1296.02</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.070000</v>
+        <v>-222.07</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>53795.084939</v>
       </c>
       <c r="BJ12" s="1">
-        <v>14.943079</v>
+        <v>14.943079000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1366.710000</v>
+        <v>1366.71</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.222000</v>
+        <v>-359.22199999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>53806.066866</v>
+        <v>53806.066866000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>14.946130</v>
+        <v>14.94613</v>
       </c>
       <c r="BP12" s="1">
-        <v>1482.470000</v>
+        <v>1482.47</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-582.040000</v>
+        <v>-582.04</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>53816.685183</v>
+        <v>53816.685183000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>14.949079</v>
+        <v>14.949078999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1616.450000</v>
+        <v>1616.45</v>
       </c>
       <c r="BV12" s="1">
-        <v>-833.141000</v>
+        <v>-833.14099999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>53827.523761</v>
+        <v>53827.523760999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>14.952090</v>
+        <v>14.95209</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1769.710000</v>
+        <v>1769.71</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1105.780000</v>
+        <v>-1105.78</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>53839.399504</v>
+        <v>53839.399504000001</v>
       </c>
       <c r="CD12" s="1">
         <v>14.955389</v>
       </c>
       <c r="CE12" s="1">
-        <v>2190.080000</v>
+        <v>2190.08</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1765.680000</v>
+        <v>-1765.68</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>53667.425590</v>
+        <v>53667.425589999999</v>
       </c>
       <c r="B13" s="1">
-        <v>14.907618</v>
+        <v>14.907617999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1145.540000</v>
+        <v>1145.54</v>
       </c>
       <c r="D13" s="1">
-        <v>-255.370000</v>
+        <v>-255.37</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>53677.792470</v>
+        <v>53677.79247</v>
       </c>
       <c r="G13" s="1">
         <v>14.910498</v>
       </c>
       <c r="H13" s="1">
-        <v>1166.630000</v>
+        <v>1166.6300000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-214.860000</v>
+        <v>-214.86</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>53688.239736</v>
+        <v>53688.239736000003</v>
       </c>
       <c r="L13" s="1">
-        <v>14.913400</v>
+        <v>14.913399999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1193.870000</v>
+        <v>1193.8699999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.820000</v>
+        <v>-149.82</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>53698.756876</v>
+        <v>53698.756875999999</v>
       </c>
       <c r="Q13" s="1">
         <v>14.916321</v>
       </c>
       <c r="R13" s="1">
-        <v>1201.740000</v>
+        <v>1201.74</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.975000</v>
+        <v>-127.97499999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>53709.289421</v>
+        <v>53709.289421000001</v>
       </c>
       <c r="V13" s="1">
         <v>14.919247</v>
       </c>
       <c r="W13" s="1">
-        <v>1209.120000</v>
+        <v>1209.1199999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.322000</v>
+        <v>-107.322</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>53719.789728</v>
+        <v>53719.789728000003</v>
       </c>
       <c r="AA13" s="1">
         <v>14.922164</v>
       </c>
       <c r="AB13" s="1">
-        <v>1216.780000</v>
+        <v>1216.78</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.542600</v>
+        <v>-90.542599999999993</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>53730.648144</v>
+        <v>53730.648143999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>14.925180</v>
+        <v>14.925179999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1221.390000</v>
+        <v>1221.3900000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.202000</v>
+        <v>-86.201999999999998</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>53741.080498</v>
+        <v>53741.080498000003</v>
       </c>
       <c r="AK13" s="1">
-        <v>14.928078</v>
+        <v>14.928077999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1228.590000</v>
+        <v>1228.5899999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.726100</v>
+        <v>-89.726100000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>53751.827812</v>
+        <v>53751.827812000003</v>
       </c>
       <c r="AP13" s="1">
         <v>14.931063</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1236.590000</v>
+        <v>1236.5899999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.107000</v>
+        <v>-102.107</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>53762.927783</v>
+        <v>53762.927782999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>14.934147</v>
+        <v>14.934146999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.717000</v>
+        <v>-121.717</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>53773.996503</v>
+        <v>53773.996503000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>14.937221</v>
+        <v>14.937220999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.428000</v>
+        <v>-139.428</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>53784.911961</v>
+        <v>53784.911960999998</v>
       </c>
       <c r="BE13" s="1">
         <v>14.940253</v>
       </c>
       <c r="BF13" s="1">
-        <v>1296.000000</v>
+        <v>1296</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.037000</v>
+        <v>-222.03700000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>53795.777819</v>
+        <v>53795.777819000003</v>
       </c>
       <c r="BJ13" s="1">
         <v>14.943272</v>
       </c>
       <c r="BK13" s="1">
-        <v>1366.650000</v>
+        <v>1366.65</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.229000</v>
+        <v>-359.22899999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>53806.177965</v>
+        <v>53806.177965000003</v>
       </c>
       <c r="BO13" s="1">
         <v>14.946161</v>
       </c>
       <c r="BP13" s="1">
-        <v>1482.470000</v>
+        <v>1482.47</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-582.041000</v>
+        <v>-582.04100000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>53817.101822</v>
+        <v>53817.101821999997</v>
       </c>
       <c r="BT13" s="1">
         <v>14.949195</v>
       </c>
       <c r="BU13" s="1">
-        <v>1616.410000</v>
+        <v>1616.41</v>
       </c>
       <c r="BV13" s="1">
-        <v>-833.124000</v>
+        <v>-833.12400000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>53827.945856</v>
+        <v>53827.945855999998</v>
       </c>
       <c r="BY13" s="1">
         <v>14.952207</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1769.780000</v>
+        <v>1769.78</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1105.840000</v>
+        <v>-1105.8399999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>53839.922257</v>
+        <v>53839.922256999998</v>
       </c>
       <c r="CD13" s="1">
         <v>14.955534</v>
       </c>
       <c r="CE13" s="1">
-        <v>2192.060000</v>
+        <v>2192.06</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1765.870000</v>
+        <v>-1765.87</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>53667.694916</v>
       </c>
@@ -3565,58 +3981,58 @@
         <v>14.907693</v>
       </c>
       <c r="C14" s="1">
-        <v>1145.470000</v>
+        <v>1145.47</v>
       </c>
       <c r="D14" s="1">
-        <v>-255.256000</v>
+        <v>-255.256</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>53678.134214</v>
+        <v>53678.134213999998</v>
       </c>
       <c r="G14" s="1">
         <v>14.910593</v>
       </c>
       <c r="H14" s="1">
-        <v>1165.960000</v>
+        <v>1165.96</v>
       </c>
       <c r="I14" s="1">
-        <v>-215.283000</v>
+        <v>-215.28299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>53688.585417</v>
+        <v>53688.585417000002</v>
       </c>
       <c r="L14" s="1">
         <v>14.913496</v>
       </c>
       <c r="M14" s="1">
-        <v>1194.000000</v>
+        <v>1194</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.668000</v>
+        <v>-149.66800000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>53699.106587</v>
+        <v>53699.106587000002</v>
       </c>
       <c r="Q14" s="1">
         <v>14.916418</v>
       </c>
       <c r="R14" s="1">
-        <v>1201.770000</v>
+        <v>1201.77</v>
       </c>
       <c r="S14" s="1">
-        <v>-128.022000</v>
+        <v>-128.02199999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>53709.633683</v>
@@ -3625,103 +4041,103 @@
         <v>14.919343</v>
       </c>
       <c r="W14" s="1">
-        <v>1209.200000</v>
+        <v>1209.2</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.414000</v>
+        <v>-107.414</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>53720.486141</v>
+        <v>53720.486141000001</v>
       </c>
       <c r="AA14" s="1">
         <v>14.922357</v>
       </c>
       <c r="AB14" s="1">
-        <v>1216.780000</v>
+        <v>1216.78</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.594800</v>
+        <v>-90.594800000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>53730.990385</v>
+        <v>53730.990384999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>14.925275</v>
+        <v>14.925274999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1221.440000</v>
+        <v>1221.44</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.121200</v>
+        <v>-86.121200000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>53741.430179</v>
+        <v>53741.430179000003</v>
       </c>
       <c r="AK14" s="1">
         <v>14.928175</v>
       </c>
       <c r="AL14" s="1">
-        <v>1228.590000</v>
+        <v>1228.5899999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.723400</v>
+        <v>-89.723399999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>53752.190886</v>
+        <v>53752.190885999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>14.931164</v>
+        <v>14.931164000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1236.590000</v>
+        <v>1236.5899999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.097000</v>
+        <v>-102.09699999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>53763.596389</v>
+        <v>53763.596388999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>14.934332</v>
+        <v>14.934331999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1246.700000</v>
+        <v>1246.7</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.730000</v>
+        <v>-121.73</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>53774.674567</v>
+        <v>53774.674567000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>14.937410</v>
+        <v>14.93741</v>
       </c>
       <c r="BA14" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.420000</v>
+        <v>-139.41999999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>53785.346457</v>
@@ -3730,330 +4146,330 @@
         <v>14.940374</v>
       </c>
       <c r="BF14" s="1">
-        <v>1296.010000</v>
+        <v>1296.01</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.065000</v>
+        <v>-222.065</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>53796.211322</v>
+        <v>53796.211322000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>14.943392</v>
+        <v>14.943391999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1366.760000</v>
+        <v>1366.76</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.176000</v>
+        <v>-359.17599999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>53806.600060</v>
+        <v>53806.600059999997</v>
       </c>
       <c r="BO14" s="1">
         <v>14.946278</v>
       </c>
       <c r="BP14" s="1">
-        <v>1482.490000</v>
+        <v>1482.49</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-582.017000</v>
+        <v>-582.01700000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>53817.529375</v>
+        <v>53817.529374999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>14.949314</v>
+        <v>14.949313999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1616.360000</v>
+        <v>1616.36</v>
       </c>
       <c r="BV14" s="1">
-        <v>-833.061000</v>
+        <v>-833.06100000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>53828.371953</v>
+        <v>53828.371953000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>14.952326</v>
+        <v>14.952325999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1769.750000</v>
+        <v>1769.75</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1105.800000</v>
+        <v>-1105.8</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>53840.439583</v>
+        <v>53840.439582999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>14.955678</v>
+        <v>14.955678000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2191.950000</v>
+        <v>2191.9499999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1763.950000</v>
+        <v>-1763.95</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>53668.037155</v>
+        <v>53668.037154999998</v>
       </c>
       <c r="B15" s="1">
         <v>14.907788</v>
       </c>
       <c r="C15" s="1">
-        <v>1145.670000</v>
+        <v>1145.67</v>
       </c>
       <c r="D15" s="1">
-        <v>-255.444000</v>
+        <v>-255.44399999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>53678.477941</v>
+        <v>53678.477940999997</v>
       </c>
       <c r="G15" s="1">
         <v>14.910688</v>
       </c>
       <c r="H15" s="1">
-        <v>1166.310000</v>
+        <v>1166.31</v>
       </c>
       <c r="I15" s="1">
-        <v>-214.825000</v>
+        <v>-214.82499999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>53688.931162</v>
+        <v>53688.931162000001</v>
       </c>
       <c r="L15" s="1">
         <v>14.913592</v>
       </c>
       <c r="M15" s="1">
-        <v>1194.020000</v>
+        <v>1194.02</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.662000</v>
+        <v>-149.66200000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>53699.802443</v>
       </c>
       <c r="Q15" s="1">
-        <v>14.916612</v>
+        <v>14.916612000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1201.800000</v>
+        <v>1201.8</v>
       </c>
       <c r="S15" s="1">
-        <v>-128.032000</v>
+        <v>-128.03200000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>53710.357835</v>
+        <v>53710.357835000003</v>
       </c>
       <c r="V15" s="1">
         <v>14.919544</v>
       </c>
       <c r="W15" s="1">
-        <v>1209.240000</v>
+        <v>1209.24</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.509000</v>
+        <v>-107.509</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>53720.835789</v>
+        <v>53720.835788999997</v>
       </c>
       <c r="AA15" s="1">
         <v>14.922454</v>
       </c>
       <c r="AB15" s="1">
-        <v>1216.810000</v>
+        <v>1216.81</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.702600</v>
+        <v>-90.702600000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>53731.335599</v>
+        <v>53731.335598999998</v>
       </c>
       <c r="AF15" s="1">
         <v>14.925371</v>
       </c>
       <c r="AG15" s="1">
-        <v>1221.320000</v>
+        <v>1221.32</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.238400</v>
+        <v>-86.238399999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>53741.779362</v>
+        <v>53741.779362000001</v>
       </c>
       <c r="AK15" s="1">
         <v>14.928272</v>
       </c>
       <c r="AL15" s="1">
-        <v>1228.590000</v>
+        <v>1228.5899999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.750400</v>
+        <v>-89.750399999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>53752.864947</v>
+        <v>53752.864947000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>14.931351</v>
+        <v>14.931350999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1236.570000</v>
+        <v>1236.57</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.091000</v>
+        <v>-102.09099999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>53764.048740</v>
+        <v>53764.048739999998</v>
       </c>
       <c r="AU15" s="1">
-        <v>14.934458</v>
+        <v>14.934457999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1246.690000</v>
+        <v>1246.69</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.719000</v>
+        <v>-121.71899999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>53775.074806</v>
+        <v>53775.074805999997</v>
       </c>
       <c r="AZ15" s="1">
         <v>14.937521</v>
       </c>
       <c r="BA15" s="1">
-        <v>1255.260000</v>
+        <v>1255.26</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.405000</v>
+        <v>-139.405</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>53785.708080</v>
+        <v>53785.708079999997</v>
       </c>
       <c r="BE15" s="1">
         <v>14.940474</v>
       </c>
       <c r="BF15" s="1">
-        <v>1296.010000</v>
+        <v>1296.01</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.080000</v>
+        <v>-222.08</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>53796.585802</v>
+        <v>53796.585802000001</v>
       </c>
       <c r="BJ15" s="1">
         <v>14.943496</v>
       </c>
       <c r="BK15" s="1">
-        <v>1366.680000</v>
+        <v>1366.68</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.291000</v>
+        <v>-359.291</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>53807.000299</v>
+        <v>53807.000298999999</v>
       </c>
       <c r="BO15" s="1">
         <v>14.946389</v>
       </c>
       <c r="BP15" s="1">
-        <v>1482.460000</v>
+        <v>1482.46</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-581.944000</v>
+        <v>-581.94399999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>53817.944557</v>
+        <v>53817.944557000003</v>
       </c>
       <c r="BT15" s="1">
         <v>14.949429</v>
       </c>
       <c r="BU15" s="1">
-        <v>1616.390000</v>
+        <v>1616.39</v>
       </c>
       <c r="BV15" s="1">
-        <v>-832.984000</v>
+        <v>-832.98400000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>53828.789087</v>
+        <v>53828.789086999997</v>
       </c>
       <c r="BY15" s="1">
         <v>14.952441</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1769.580000</v>
+        <v>1769.58</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1105.750000</v>
+        <v>-1105.75</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>53840.955919</v>
@@ -4062,120 +4478,120 @@
         <v>14.955821</v>
       </c>
       <c r="CE15" s="1">
-        <v>2191.890000</v>
+        <v>2191.89</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1764.060000</v>
+        <v>-1764.06</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>53668.378404</v>
+        <v>53668.378404000003</v>
       </c>
       <c r="B16" s="1">
         <v>14.907883</v>
       </c>
       <c r="C16" s="1">
-        <v>1145.550000</v>
+        <v>1145.55</v>
       </c>
       <c r="D16" s="1">
-        <v>-255.109000</v>
+        <v>-255.10900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>53679.168408</v>
+        <v>53679.168407999998</v>
       </c>
       <c r="G16" s="1">
-        <v>14.910880</v>
+        <v>14.910880000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1165.960000</v>
+        <v>1165.96</v>
       </c>
       <c r="I16" s="1">
-        <v>-214.129000</v>
+        <v>-214.12899999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>53689.623081</v>
+        <v>53689.623080999998</v>
       </c>
       <c r="L16" s="1">
         <v>14.913784</v>
       </c>
       <c r="M16" s="1">
-        <v>1194.000000</v>
+        <v>1194</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.723000</v>
+        <v>-149.72300000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>53700.148649</v>
+        <v>53700.148649000002</v>
       </c>
       <c r="Q16" s="1">
         <v>14.916708</v>
       </c>
       <c r="R16" s="1">
-        <v>1201.780000</v>
+        <v>1201.78</v>
       </c>
       <c r="S16" s="1">
-        <v>-128.025000</v>
+        <v>-128.02500000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>53710.662844</v>
+        <v>53710.662843999999</v>
       </c>
       <c r="V16" s="1">
         <v>14.919629</v>
       </c>
       <c r="W16" s="1">
-        <v>1209.000000</v>
+        <v>1209</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.307000</v>
+        <v>-107.307</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>53721.183522</v>
+        <v>53721.183521999999</v>
       </c>
       <c r="AA16" s="1">
         <v>14.922551</v>
       </c>
       <c r="AB16" s="1">
-        <v>1216.740000</v>
+        <v>1216.74</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.587400</v>
+        <v>-90.587400000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>53731.990846</v>
+        <v>53731.990846000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>14.925553</v>
+        <v>14.925553000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1221.500000</v>
+        <v>1221.5</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.140200</v>
+        <v>-86.140199999999993</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>53742.434578</v>
@@ -4184,572 +4600,572 @@
         <v>14.928454</v>
       </c>
       <c r="AL16" s="1">
-        <v>1228.590000</v>
+        <v>1228.5899999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.718000</v>
+        <v>-89.718000000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>53753.266708</v>
+        <v>53753.266708000003</v>
       </c>
       <c r="AP16" s="1">
-        <v>14.931463</v>
+        <v>14.931463000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1236.560000</v>
+        <v>1236.56</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.085000</v>
+        <v>-102.08499999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>53764.412308</v>
+        <v>53764.412307999999</v>
       </c>
       <c r="AU16" s="1">
         <v>14.934559</v>
       </c>
       <c r="AV16" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.701000</v>
+        <v>-121.70099999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>53775.460693</v>
+        <v>53775.460693000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>14.937628</v>
       </c>
       <c r="BA16" s="1">
-        <v>1255.260000</v>
+        <v>1255.26</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.426000</v>
+        <v>-139.42599999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>53786.069655</v>
+        <v>53786.069654999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>14.940575</v>
+        <v>14.940575000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1296.010000</v>
+        <v>1296.01</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.085000</v>
+        <v>-222.08500000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>53796.960777</v>
       </c>
       <c r="BJ16" s="1">
-        <v>14.943600</v>
+        <v>14.9436</v>
       </c>
       <c r="BK16" s="1">
-        <v>1366.670000</v>
+        <v>1366.67</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.193000</v>
+        <v>-359.19299999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>53807.423883</v>
+        <v>53807.423883000003</v>
       </c>
       <c r="BO16" s="1">
         <v>14.946507</v>
       </c>
       <c r="BP16" s="1">
-        <v>1482.490000</v>
+        <v>1482.49</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-582.006000</v>
+        <v>-582.00599999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>53818.373598</v>
+        <v>53818.373597999998</v>
       </c>
       <c r="BT16" s="1">
         <v>14.949548</v>
       </c>
       <c r="BU16" s="1">
-        <v>1616.410000</v>
+        <v>1616.41</v>
       </c>
       <c r="BV16" s="1">
-        <v>-832.990000</v>
+        <v>-832.99</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>53829.237471</v>
       </c>
       <c r="BY16" s="1">
-        <v>14.952566</v>
+        <v>14.952565999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1769.740000</v>
+        <v>1769.74</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1105.700000</v>
+        <v>-1105.7</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>53841.507966</v>
+        <v>53841.507965999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>14.955974</v>
+        <v>14.955973999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2192.590000</v>
+        <v>2192.59</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1765.130000</v>
+        <v>-1765.13</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>53669.064370</v>
+        <v>53669.06437</v>
       </c>
       <c r="B17" s="1">
         <v>14.908073</v>
       </c>
       <c r="C17" s="1">
-        <v>1145.610000</v>
+        <v>1145.6099999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-255.051000</v>
+        <v>-255.05099999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>53679.514131</v>
+        <v>53679.514131000004</v>
       </c>
       <c r="G17" s="1">
         <v>14.910976</v>
       </c>
       <c r="H17" s="1">
-        <v>1166.700000</v>
+        <v>1166.7</v>
       </c>
       <c r="I17" s="1">
-        <v>-214.706000</v>
+        <v>-214.70599999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>53689.968263</v>
+        <v>53689.968263000002</v>
       </c>
       <c r="L17" s="1">
-        <v>14.913880</v>
+        <v>14.913880000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1194.030000</v>
+        <v>1194.03</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.792000</v>
+        <v>-149.792</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>53700.499816</v>
+        <v>53700.499816000003</v>
       </c>
       <c r="Q17" s="1">
-        <v>14.916806</v>
+        <v>14.916805999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1201.750000</v>
+        <v>1201.75</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.994000</v>
+        <v>-127.994</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>53711.328011</v>
+        <v>53711.328010999998</v>
       </c>
       <c r="V17" s="1">
         <v>14.919813</v>
       </c>
       <c r="W17" s="1">
-        <v>1209.060000</v>
+        <v>1209.06</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.382000</v>
+        <v>-107.38200000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>53721.856557</v>
+        <v>53721.856556999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>14.922738</v>
+        <v>14.922738000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1216.740000</v>
+        <v>1216.74</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.619200</v>
+        <v>-90.619200000000006</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>53732.365294</v>
+        <v>53732.365294000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>14.925657</v>
+        <v>14.925656999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1221.440000</v>
+        <v>1221.44</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.131800</v>
+        <v>-86.131799999999998</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>53742.826926</v>
+        <v>53742.826926000002</v>
       </c>
       <c r="AK17" s="1">
         <v>14.928563</v>
       </c>
       <c r="AL17" s="1">
-        <v>1228.580000</v>
+        <v>1228.58</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.705900</v>
+        <v>-89.7059</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>53753.647150</v>
+        <v>53753.647149999997</v>
       </c>
       <c r="AP17" s="1">
         <v>14.931569</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1236.590000</v>
+        <v>1236.5899999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.117000</v>
+        <v>-102.117</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>53764.778851</v>
+        <v>53764.778851000003</v>
       </c>
       <c r="AU17" s="1">
         <v>14.934661</v>
       </c>
       <c r="AV17" s="1">
-        <v>1246.680000</v>
+        <v>1246.68</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.715000</v>
+        <v>-121.715</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>53775.819333</v>
+        <v>53775.819332999999</v>
       </c>
       <c r="AZ17" s="1">
         <v>14.937728</v>
       </c>
       <c r="BA17" s="1">
-        <v>1255.260000</v>
+        <v>1255.26</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.417000</v>
+        <v>-139.417</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>53786.500151</v>
       </c>
       <c r="BE17" s="1">
-        <v>14.940694</v>
+        <v>14.940694000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1296.000000</v>
+        <v>1296</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.091000</v>
+        <v>-222.09100000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>53797.421561</v>
+        <v>53797.421561000003</v>
       </c>
       <c r="BJ17" s="1">
         <v>14.943728</v>
       </c>
       <c r="BK17" s="1">
-        <v>1366.650000</v>
+        <v>1366.65</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.201000</v>
+        <v>-359.20100000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>53807.819194</v>
+        <v>53807.819194000003</v>
       </c>
       <c r="BO17" s="1">
-        <v>14.946616</v>
+        <v>14.946616000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1482.480000</v>
+        <v>1482.48</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-581.998000</v>
+        <v>-581.99800000000005</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>53818.801612</v>
+        <v>53818.801612000003</v>
       </c>
       <c r="BT17" s="1">
         <v>14.949667</v>
       </c>
       <c r="BU17" s="1">
-        <v>1616.340000</v>
+        <v>1616.34</v>
       </c>
       <c r="BV17" s="1">
-        <v>-832.946000</v>
+        <v>-832.94600000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>53829.658574</v>
+        <v>53829.658574000001</v>
       </c>
       <c r="BY17" s="1">
         <v>14.952683</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1769.810000</v>
+        <v>1769.81</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1105.720000</v>
+        <v>-1105.72</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>53842.034717</v>
+        <v>53842.034717000002</v>
       </c>
       <c r="CD17" s="1">
         <v>14.956121</v>
       </c>
       <c r="CE17" s="1">
-        <v>2191.470000</v>
+        <v>2191.4699999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1763.700000</v>
+        <v>-1763.7</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>53669.407601</v>
+        <v>53669.407600999999</v>
       </c>
       <c r="B18" s="1">
-        <v>14.908169</v>
+        <v>14.908168999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1145.330000</v>
+        <v>1145.33</v>
       </c>
       <c r="D18" s="1">
-        <v>-255.047000</v>
+        <v>-255.047</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>53679.858339</v>
+        <v>53679.858338999999</v>
       </c>
       <c r="G18" s="1">
-        <v>14.911072</v>
+        <v>14.911072000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1166.980000</v>
+        <v>1166.98</v>
       </c>
       <c r="I18" s="1">
-        <v>-215.652000</v>
+        <v>-215.65199999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>53690.316453</v>
+        <v>53690.316452999999</v>
       </c>
       <c r="L18" s="1">
-        <v>14.913977</v>
+        <v>14.913976999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1194.000000</v>
+        <v>1194</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.971000</v>
+        <v>-149.971</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>53701.150071</v>
+        <v>53701.150070999996</v>
       </c>
       <c r="Q18" s="1">
         <v>14.916986</v>
       </c>
       <c r="R18" s="1">
-        <v>1201.760000</v>
+        <v>1201.76</v>
       </c>
       <c r="S18" s="1">
-        <v>-128.087000</v>
+        <v>-128.08699999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>53711.695127</v>
+        <v>53711.695126999999</v>
       </c>
       <c r="V18" s="1">
         <v>14.919915</v>
       </c>
       <c r="W18" s="1">
-        <v>1209.170000</v>
+        <v>1209.17</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.454000</v>
+        <v>-107.45399999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>53722.232028</v>
+        <v>53722.232027999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>14.922842</v>
+        <v>14.922841999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1216.730000</v>
+        <v>1216.73</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.693700</v>
+        <v>-90.693700000000007</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>53732.709022</v>
+        <v>53732.709022000003</v>
       </c>
       <c r="AF18" s="1">
         <v>14.925753</v>
       </c>
       <c r="AG18" s="1">
-        <v>1221.270000</v>
+        <v>1221.27</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.053400</v>
+        <v>-86.053399999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>53743.176592</v>
+        <v>53743.176592000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>14.928660</v>
+        <v>14.928660000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1228.570000</v>
+        <v>1228.57</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.746300</v>
+        <v>-89.746300000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>53754.009250</v>
+        <v>53754.009250000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>14.931669</v>
+        <v>14.931668999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1236.590000</v>
+        <v>1236.5899999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.103000</v>
+        <v>-102.10299999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>53765.194527</v>
       </c>
       <c r="AU18" s="1">
-        <v>14.934776</v>
+        <v>14.934775999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1246.710000</v>
+        <v>1246.71</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.733000</v>
+        <v>-121.733</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>53776.243381</v>
       </c>
       <c r="AZ18" s="1">
-        <v>14.937845</v>
+        <v>14.937844999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1255.250000</v>
+        <v>1255.25</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.406000</v>
+        <v>-139.40600000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>53786.788514</v>
@@ -4758,135 +5174,135 @@
         <v>14.940775</v>
       </c>
       <c r="BF18" s="1">
-        <v>1296.000000</v>
+        <v>1296</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.071000</v>
+        <v>-222.071</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>53797.747963</v>
+        <v>53797.747963000002</v>
       </c>
       <c r="BJ18" s="1">
         <v>14.943819</v>
       </c>
       <c r="BK18" s="1">
-        <v>1366.710000</v>
+        <v>1366.71</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.159000</v>
+        <v>-359.15899999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>53808.241291</v>
+        <v>53808.241290999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>14.946734</v>
+        <v>14.946733999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1482.530000</v>
+        <v>1482.53</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-581.970000</v>
+        <v>-581.97</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>53819.209830</v>
+        <v>53819.20983</v>
       </c>
       <c r="BT18" s="1">
         <v>14.949781</v>
       </c>
       <c r="BU18" s="1">
-        <v>1616.370000</v>
+        <v>1616.37</v>
       </c>
       <c r="BV18" s="1">
-        <v>-832.932000</v>
+        <v>-832.93200000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>53830.082622</v>
+        <v>53830.082622000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>14.952801</v>
+        <v>14.952800999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1769.850000</v>
+        <v>1769.85</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1105.820000</v>
+        <v>-1105.82</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>53842.554561</v>
+        <v>53842.554560999997</v>
       </c>
       <c r="CD18" s="1">
         <v>14.956265</v>
       </c>
       <c r="CE18" s="1">
-        <v>2190.470000</v>
+        <v>2190.4699999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1766.020000</v>
+        <v>-1766.02</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>53669.748353</v>
+        <v>53669.748353000003</v>
       </c>
       <c r="B19" s="1">
         <v>14.908263</v>
       </c>
       <c r="C19" s="1">
-        <v>1145.540000</v>
+        <v>1145.54</v>
       </c>
       <c r="D19" s="1">
-        <v>-255.253000</v>
+        <v>-255.25299999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>53680.518483</v>
       </c>
       <c r="G19" s="1">
-        <v>14.911255</v>
+        <v>14.911255000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1166.800000</v>
+        <v>1166.8</v>
       </c>
       <c r="I19" s="1">
-        <v>-214.990000</v>
+        <v>-214.99</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>53690.966709</v>
       </c>
       <c r="L19" s="1">
-        <v>14.914157</v>
+        <v>14.914156999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1194.000000</v>
+        <v>1194</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.609000</v>
+        <v>-149.60900000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>53701.547864</v>
@@ -4895,435 +5311,435 @@
         <v>14.917097</v>
       </c>
       <c r="R19" s="1">
-        <v>1201.800000</v>
+        <v>1201.8</v>
       </c>
       <c r="S19" s="1">
-        <v>-128.029000</v>
+        <v>-128.029</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>53712.037257</v>
+        <v>53712.037257000004</v>
       </c>
       <c r="V19" s="1">
-        <v>14.920010</v>
+        <v>14.92001</v>
       </c>
       <c r="W19" s="1">
-        <v>1209.140000</v>
+        <v>1209.1400000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.360000</v>
+        <v>-107.36</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>53722.579227</v>
+        <v>53722.579227000002</v>
       </c>
       <c r="AA19" s="1">
         <v>14.922939</v>
       </c>
       <c r="AB19" s="1">
-        <v>1216.740000</v>
+        <v>1216.74</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.658800</v>
+        <v>-90.658799999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>53733.053742</v>
+        <v>53733.053741999996</v>
       </c>
       <c r="AF19" s="1">
         <v>14.925848</v>
       </c>
       <c r="AG19" s="1">
-        <v>1221.340000</v>
+        <v>1221.3399999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.082500</v>
+        <v>-86.082499999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>53743.523792</v>
       </c>
       <c r="AK19" s="1">
-        <v>14.928757</v>
+        <v>14.928756999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1228.580000</v>
+        <v>1228.58</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.710000</v>
+        <v>-89.71</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>53754.430322</v>
       </c>
       <c r="AP19" s="1">
-        <v>14.931786</v>
+        <v>14.931786000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1236.600000</v>
+        <v>1236.5999999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.083000</v>
+        <v>-102.083</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>53765.507971</v>
+        <v>53765.507970999999</v>
       </c>
       <c r="AU19" s="1">
         <v>14.934863</v>
       </c>
       <c r="AV19" s="1">
-        <v>1246.690000</v>
+        <v>1246.69</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.770000</v>
+        <v>-121.77</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>53776.537508</v>
+        <v>53776.537508000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>14.937927</v>
       </c>
       <c r="BA19" s="1">
-        <v>1255.250000</v>
+        <v>1255.25</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.391000</v>
+        <v>-139.39099999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>53787.153382</v>
+        <v>53787.153381999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>14.940876</v>
+        <v>14.940875999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1296.030000</v>
+        <v>1296.03</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.042000</v>
+        <v>-222.042</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>53798.111001</v>
+        <v>53798.111000999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>14.943920</v>
+        <v>14.94392</v>
       </c>
       <c r="BK19" s="1">
-        <v>1366.690000</v>
+        <v>1366.69</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.256000</v>
+        <v>-359.25599999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>53808.639609</v>
+        <v>53808.639608999998</v>
       </c>
       <c r="BO19" s="1">
         <v>14.946844</v>
       </c>
       <c r="BP19" s="1">
-        <v>1482.440000</v>
+        <v>1482.44</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-581.987000</v>
+        <v>-581.98699999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>53819.642332</v>
+        <v>53819.642332000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>14.949901</v>
+        <v>14.949901000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1616.370000</v>
+        <v>1616.37</v>
       </c>
       <c r="BV19" s="1">
-        <v>-832.748000</v>
+        <v>-832.74800000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>53830.529020</v>
+        <v>53830.529020000002</v>
       </c>
       <c r="BY19" s="1">
         <v>14.952925</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1769.730000</v>
+        <v>1769.73</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1105.650000</v>
+        <v>-1105.6500000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>53843.096652</v>
       </c>
       <c r="CD19" s="1">
-        <v>14.956416</v>
+        <v>14.956416000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2192.670000</v>
+        <v>2192.67</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1763.920000</v>
+        <v>-1763.92</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>53670.405552</v>
+        <v>53670.405551999997</v>
       </c>
       <c r="B20" s="1">
         <v>14.908446</v>
       </c>
       <c r="C20" s="1">
-        <v>1145.310000</v>
+        <v>1145.31</v>
       </c>
       <c r="D20" s="1">
-        <v>-255.181000</v>
+        <v>-255.18100000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>53680.892962</v>
+        <v>53680.892961999998</v>
       </c>
       <c r="G20" s="1">
-        <v>14.911359</v>
+        <v>14.911358999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1166.990000</v>
+        <v>1166.99</v>
       </c>
       <c r="I20" s="1">
-        <v>-214.391000</v>
+        <v>-214.39099999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>53691.352596</v>
+        <v>53691.352595999997</v>
       </c>
       <c r="L20" s="1">
         <v>14.914265</v>
       </c>
       <c r="M20" s="1">
-        <v>1194.210000</v>
+        <v>1194.21</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.751000</v>
+        <v>-149.751</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>53701.893110</v>
+        <v>53701.893109999997</v>
       </c>
       <c r="Q20" s="1">
-        <v>14.917193</v>
+        <v>14.917192999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1201.790000</v>
+        <v>1201.79</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.974000</v>
+        <v>-127.974</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>53712.382473</v>
+        <v>53712.382472999998</v>
       </c>
       <c r="V20" s="1">
-        <v>14.920106</v>
+        <v>14.920106000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1209.200000</v>
+        <v>1209.2</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.314000</v>
+        <v>-107.31399999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>53722.927616</v>
+        <v>53722.927616000001</v>
       </c>
       <c r="AA20" s="1">
         <v>14.923035</v>
       </c>
       <c r="AB20" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.718400</v>
+        <v>-90.718400000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>53733.471374</v>
+        <v>53733.471374000001</v>
       </c>
       <c r="AF20" s="1">
         <v>14.925964</v>
       </c>
       <c r="AG20" s="1">
-        <v>1221.390000</v>
+        <v>1221.3900000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.100000</v>
+        <v>-86.1</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>53743.955808</v>
+        <v>53743.955807999999</v>
       </c>
       <c r="AK20" s="1">
         <v>14.928877</v>
       </c>
       <c r="AL20" s="1">
-        <v>1228.570000</v>
+        <v>1228.57</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.718700</v>
+        <v>-89.718699999999998</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>53754.732881</v>
+        <v>53754.732881000004</v>
       </c>
       <c r="AP20" s="1">
-        <v>14.931870</v>
+        <v>14.93187</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1236.570000</v>
+        <v>1236.57</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.082000</v>
+        <v>-102.08199999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>53765.868106</v>
+        <v>53765.868106000002</v>
       </c>
       <c r="AU20" s="1">
         <v>14.934963</v>
       </c>
       <c r="AV20" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.699000</v>
+        <v>-121.699</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>53776.896115</v>
+        <v>53776.896115000003</v>
       </c>
       <c r="AZ20" s="1">
         <v>14.938027</v>
       </c>
       <c r="BA20" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.432000</v>
+        <v>-139.43199999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>53787.513510</v>
+        <v>53787.513509999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>14.940976</v>
+        <v>14.940975999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1296.010000</v>
+        <v>1296.01</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.077000</v>
+        <v>-222.077</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>53798.859958</v>
+        <v>53798.859958000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>14.944128</v>
+        <v>14.944127999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1366.630000</v>
+        <v>1366.63</v>
       </c>
       <c r="BL20" s="1">
-        <v>-359.239000</v>
+        <v>-359.23899999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>53809.054756</v>
+        <v>53809.054755999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>14.946960</v>
+        <v>14.946960000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1482.460000</v>
+        <v>1482.46</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-581.981000</v>
+        <v>-581.98099999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>53820.069012</v>
       </c>
       <c r="BT20" s="1">
-        <v>14.950019</v>
+        <v>14.950018999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1616.320000</v>
+        <v>1616.32</v>
       </c>
       <c r="BV20" s="1">
-        <v>-832.849000</v>
+        <v>-832.84900000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>53830.960045</v>
@@ -5332,90 +5748,90 @@
         <v>14.953044</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1769.740000</v>
+        <v>1769.74</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1105.920000</v>
+        <v>-1105.92</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>53843.633513</v>
+        <v>53843.633513000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>14.956565</v>
+        <v>14.956564999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2190.000000</v>
+        <v>2190</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1764.550000</v>
+        <v>-1764.55</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>53670.773618</v>
+        <v>53670.773617999999</v>
       </c>
       <c r="B21" s="1">
         <v>14.908548</v>
       </c>
       <c r="C21" s="1">
-        <v>1145.400000</v>
+        <v>1145.4000000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-255.245000</v>
+        <v>-255.245</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>53681.237683</v>
+        <v>53681.237682999999</v>
       </c>
       <c r="G21" s="1">
         <v>14.911455</v>
       </c>
       <c r="H21" s="1">
-        <v>1165.950000</v>
+        <v>1165.95</v>
       </c>
       <c r="I21" s="1">
-        <v>-214.911000</v>
+        <v>-214.911</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>53691.695828</v>
+        <v>53691.695828000004</v>
       </c>
       <c r="L21" s="1">
-        <v>14.914360</v>
+        <v>14.91436</v>
       </c>
       <c r="M21" s="1">
-        <v>1194.070000</v>
+        <v>1194.07</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.717000</v>
+        <v>-149.71700000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>53702.243750</v>
+        <v>53702.243750000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>14.917290</v>
+        <v>14.917289999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1201.780000</v>
+        <v>1201.78</v>
       </c>
       <c r="S21" s="1">
-        <v>-128.044000</v>
+        <v>-128.04400000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>53712.808568</v>
@@ -5424,28 +5840,28 @@
         <v>14.920225</v>
       </c>
       <c r="W21" s="1">
-        <v>1209.080000</v>
+        <v>1209.08</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.531000</v>
+        <v>-107.53100000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>53723.347067</v>
+        <v>53723.347067000002</v>
       </c>
       <c r="AA21" s="1">
         <v>14.923152</v>
       </c>
       <c r="AB21" s="1">
-        <v>1216.730000</v>
+        <v>1216.73</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.652300</v>
+        <v>-90.652299999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>53733.763047</v>
@@ -5454,58 +5870,58 @@
         <v>14.926045</v>
       </c>
       <c r="AG21" s="1">
-        <v>1221.310000</v>
+        <v>1221.31</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.114800</v>
+        <v>-86.114800000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>53744.232080</v>
+        <v>53744.232080000002</v>
       </c>
       <c r="AK21" s="1">
         <v>14.928953</v>
       </c>
       <c r="AL21" s="1">
-        <v>1228.530000</v>
+        <v>1228.53</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.724400</v>
+        <v>-89.724400000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>53755.091985</v>
+        <v>53755.091984999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>14.931970</v>
+        <v>14.93197</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1236.580000</v>
+        <v>1236.58</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.092000</v>
+        <v>-102.092</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>53766.237090</v>
+        <v>53766.237090000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>14.935066</v>
+        <v>14.935066000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1246.670000</v>
+        <v>1246.67</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.711000</v>
+        <v>-121.711</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>53777.253266</v>
@@ -5514,407 +5930,407 @@
         <v>14.938126</v>
       </c>
       <c r="BA21" s="1">
-        <v>1255.270000</v>
+        <v>1255.27</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.434000</v>
+        <v>-139.434</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>53788.233668</v>
+        <v>53788.233668000001</v>
       </c>
       <c r="BE21" s="1">
         <v>14.941176</v>
       </c>
       <c r="BF21" s="1">
-        <v>1296.030000</v>
+        <v>1296.03</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.079000</v>
+        <v>-222.07900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>53799.258742</v>
+        <v>53799.258741999998</v>
       </c>
       <c r="BJ21" s="1">
         <v>14.944239</v>
       </c>
       <c r="BK21" s="1">
-        <v>1366.650000</v>
+        <v>1366.65</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.180000</v>
+        <v>-359.18</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>53809.454047</v>
+        <v>53809.454046999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>14.947071</v>
+        <v>14.947070999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1482.480000</v>
+        <v>1482.48</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-582.082000</v>
+        <v>-582.08199999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>53820.483578</v>
+        <v>53820.483577999999</v>
       </c>
       <c r="BT21" s="1">
         <v>14.950134</v>
       </c>
       <c r="BU21" s="1">
-        <v>1616.260000</v>
+        <v>1616.26</v>
       </c>
       <c r="BV21" s="1">
-        <v>-832.790000</v>
+        <v>-832.79</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>53831.381680</v>
+        <v>53831.381679999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>14.953162</v>
+        <v>14.953162000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1769.790000</v>
+        <v>1769.79</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1105.830000</v>
+        <v>-1105.83</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>53844.487967</v>
+        <v>53844.487967000001</v>
       </c>
       <c r="CD21" s="1">
         <v>14.956802</v>
       </c>
       <c r="CE21" s="1">
-        <v>2191.680000</v>
+        <v>2191.6799999999998</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1763.600000</v>
+        <v>-1763.6</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>53671.117342</v>
+        <v>53671.117341999998</v>
       </c>
       <c r="B22" s="1">
-        <v>14.908644</v>
+        <v>14.908644000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1145.460000</v>
+        <v>1145.46</v>
       </c>
       <c r="D22" s="1">
-        <v>-255.320000</v>
+        <v>-255.32</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>53681.584917</v>
       </c>
       <c r="G22" s="1">
-        <v>14.911551</v>
+        <v>14.911550999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1166.300000</v>
+        <v>1166.3</v>
       </c>
       <c r="I22" s="1">
-        <v>-214.539000</v>
+        <v>-214.53899999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>53692.076261</v>
+        <v>53692.076261000002</v>
       </c>
       <c r="L22" s="1">
-        <v>14.914466</v>
+        <v>14.914465999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1194.010000</v>
+        <v>1194.01</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.733000</v>
+        <v>-149.733</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>53702.673782</v>
+        <v>53702.673781999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>14.917409</v>
+        <v>14.917408999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1201.810000</v>
+        <v>1201.81</v>
       </c>
       <c r="S22" s="1">
-        <v>-128.060000</v>
+        <v>-128.06</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>53713.090263</v>
+        <v>53713.090262999998</v>
       </c>
       <c r="V22" s="1">
-        <v>14.920303</v>
+        <v>14.920303000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1209.140000</v>
+        <v>1209.1400000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.483000</v>
+        <v>-107.483</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>53723.637725</v>
+        <v>53723.637725000001</v>
       </c>
       <c r="AA22" s="1">
         <v>14.923233</v>
       </c>
       <c r="AB22" s="1">
-        <v>1216.850000</v>
+        <v>1216.8499999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.550100</v>
+        <v>-90.5501</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>53734.107275</v>
+        <v>53734.107275000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>14.926141</v>
+        <v>14.926140999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1221.460000</v>
+        <v>1221.46</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.047200</v>
+        <v>-86.047200000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>53744.578819</v>
+        <v>53744.578819000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>14.929050</v>
+        <v>14.92905</v>
       </c>
       <c r="AL22" s="1">
-        <v>1228.530000</v>
+        <v>1228.53</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.754200</v>
+        <v>-89.754199999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>53755.449103</v>
+        <v>53755.449102999999</v>
       </c>
       <c r="AP22" s="1">
         <v>14.932069</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1236.590000</v>
+        <v>1236.5899999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.111000</v>
+        <v>-102.111</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>53766.964752</v>
       </c>
       <c r="AU22" s="1">
-        <v>14.935268</v>
+        <v>14.935268000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1246.700000</v>
+        <v>1246.7</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.721000</v>
+        <v>-121.721</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>53777.977427</v>
+        <v>53777.977426999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>14.938327</v>
+        <v>14.938326999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.422000</v>
+        <v>-139.422</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>53788.625011</v>
+        <v>53788.625010999996</v>
       </c>
       <c r="BE22" s="1">
-        <v>14.941285</v>
+        <v>14.941285000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1296.000000</v>
+        <v>1296</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.095000</v>
+        <v>-222.095</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>53799.633223</v>
+        <v>53799.633222999997</v>
       </c>
       <c r="BJ22" s="1">
         <v>14.944343</v>
       </c>
       <c r="BK22" s="1">
-        <v>1366.730000</v>
+        <v>1366.73</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.179000</v>
+        <v>-359.17899999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>53809.876600</v>
+        <v>53809.876600000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>14.947188</v>
+        <v>14.947188000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1482.540000</v>
+        <v>1482.54</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-581.994000</v>
+        <v>-581.99400000000003</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>53821.227048</v>
+        <v>53821.227048000001</v>
       </c>
       <c r="BT22" s="1">
         <v>14.950341</v>
       </c>
       <c r="BU22" s="1">
-        <v>1616.200000</v>
+        <v>1616.2</v>
       </c>
       <c r="BV22" s="1">
-        <v>-832.695000</v>
+        <v>-832.69500000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>53832.001146</v>
+        <v>53832.001146000002</v>
       </c>
       <c r="BY22" s="1">
         <v>14.953334</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1769.820000</v>
+        <v>1769.82</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1105.820000</v>
+        <v>-1105.82</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>53844.712121</v>
+        <v>53844.712120999997</v>
       </c>
       <c r="CD22" s="1">
-        <v>14.956864</v>
+        <v>14.956863999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2191.720000</v>
+        <v>2191.7199999999998</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1763.540000</v>
+        <v>-1763.54</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>53671.457598</v>
+        <v>53671.457598000001</v>
       </c>
       <c r="B23" s="1">
         <v>14.908738</v>
       </c>
       <c r="C23" s="1">
-        <v>1145.630000</v>
+        <v>1145.6300000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-255.026000</v>
+        <v>-255.02600000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>53682.000568</v>
+        <v>53682.000568000003</v>
       </c>
       <c r="G23" s="1">
         <v>14.911667</v>
       </c>
       <c r="H23" s="1">
-        <v>1166.480000</v>
+        <v>1166.48</v>
       </c>
       <c r="I23" s="1">
-        <v>-214.956000</v>
+        <v>-214.95599999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>53692.553942</v>
+        <v>53692.553941999999</v>
       </c>
       <c r="L23" s="1">
         <v>14.914598</v>
       </c>
       <c r="M23" s="1">
-        <v>1194.020000</v>
+        <v>1194.02</v>
       </c>
       <c r="N23" s="1">
-        <v>-149.937000</v>
+        <v>-149.93700000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>53702.950095</v>
@@ -5923,43 +6339,43 @@
         <v>14.917486</v>
       </c>
       <c r="R23" s="1">
-        <v>1201.740000</v>
+        <v>1201.74</v>
       </c>
       <c r="S23" s="1">
-        <v>-128.020000</v>
+        <v>-128.02000000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>53713.438983</v>
       </c>
       <c r="V23" s="1">
-        <v>14.920400</v>
+        <v>14.920400000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1209.270000</v>
+        <v>1209.27</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.458000</v>
+        <v>-107.458</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>53723.984423</v>
+        <v>53723.984423000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>14.923329</v>
+        <v>14.923329000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1216.740000</v>
+        <v>1216.74</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.686300</v>
+        <v>-90.686300000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>53734.451963</v>
@@ -5968,345 +6384,345 @@
         <v>14.926237</v>
       </c>
       <c r="AG23" s="1">
-        <v>1221.470000</v>
+        <v>1221.47</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.222800</v>
+        <v>-86.222800000000007</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>53744.930447</v>
+        <v>53744.930446999999</v>
       </c>
       <c r="AK23" s="1">
         <v>14.929147</v>
       </c>
       <c r="AL23" s="1">
-        <v>1228.500000</v>
+        <v>1228.5</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.826700</v>
+        <v>-89.826700000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>53756.172303</v>
+        <v>53756.172302999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>14.932270</v>
+        <v>14.932270000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1236.580000</v>
+        <v>1236.58</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.100000</v>
+        <v>-102.1</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>53767.357056</v>
+        <v>53767.357056000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>14.935377</v>
+        <v>14.935377000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1246.690000</v>
+        <v>1246.69</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.703000</v>
+        <v>-121.703</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>53778.355345</v>
+        <v>53778.355345000004</v>
       </c>
       <c r="AZ23" s="1">
-        <v>14.938432</v>
+        <v>14.938432000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1255.250000</v>
+        <v>1255.25</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.429000</v>
+        <v>-139.429</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>53788.988333</v>
+        <v>53788.988333000001</v>
       </c>
       <c r="BE23" s="1">
         <v>14.941386</v>
       </c>
       <c r="BF23" s="1">
-        <v>1296.020000</v>
+        <v>1296.02</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.055000</v>
+        <v>-222.05500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>53800.316218</v>
       </c>
       <c r="BJ23" s="1">
-        <v>14.944532</v>
+        <v>14.944532000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1366.740000</v>
+        <v>1366.74</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.188000</v>
+        <v>-359.18799999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>53810.585879</v>
+        <v>53810.585878999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>14.947385</v>
+        <v>14.947385000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1482.510000</v>
+        <v>1482.51</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-582.042000</v>
+        <v>-582.04200000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>53821.338650</v>
+        <v>53821.338649999998</v>
       </c>
       <c r="BT23" s="1">
         <v>14.950372</v>
       </c>
       <c r="BU23" s="1">
-        <v>1616.190000</v>
+        <v>1616.19</v>
       </c>
       <c r="BV23" s="1">
-        <v>-832.702000</v>
+        <v>-832.702</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>53832.230826</v>
+        <v>53832.230825999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>14.953397</v>
+        <v>14.953397000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1769.740000</v>
+        <v>1769.74</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1105.670000</v>
+        <v>-1105.67</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>53845.232425</v>
+        <v>53845.232425000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>14.957009</v>
+        <v>14.957008999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2189.970000</v>
+        <v>2189.9699999999998</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1764.230000</v>
+        <v>-1764.23</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>53671.878670</v>
+        <v>53671.878669999998</v>
       </c>
       <c r="B24" s="1">
-        <v>14.908855</v>
+        <v>14.908855000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1145.440000</v>
+        <v>1145.44</v>
       </c>
       <c r="D24" s="1">
-        <v>-255.052000</v>
+        <v>-255.05199999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>53682.281126</v>
+        <v>53682.281126000002</v>
       </c>
       <c r="G24" s="1">
         <v>14.911745</v>
       </c>
       <c r="H24" s="1">
-        <v>1166.980000</v>
+        <v>1166.98</v>
       </c>
       <c r="I24" s="1">
-        <v>-214.618000</v>
+        <v>-214.61799999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>53692.737923</v>
+        <v>53692.737923000001</v>
       </c>
       <c r="L24" s="1">
-        <v>14.914649</v>
+        <v>14.914649000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1194.040000</v>
+        <v>1194.04</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.875000</v>
+        <v>-149.875</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>53703.301718</v>
+        <v>53703.301718000002</v>
       </c>
       <c r="Q24" s="1">
         <v>14.917584</v>
       </c>
       <c r="R24" s="1">
-        <v>1201.770000</v>
+        <v>1201.77</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.970000</v>
+        <v>-127.97</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>53713.784167</v>
+        <v>53713.784166999998</v>
       </c>
       <c r="V24" s="1">
         <v>14.920496</v>
       </c>
       <c r="W24" s="1">
-        <v>1208.870000</v>
+        <v>1208.8699999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.502000</v>
+        <v>-107.502</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>53724.333081</v>
+        <v>53724.333080999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>14.923426</v>
+        <v>14.923425999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1216.660000</v>
+        <v>1216.6600000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.567400</v>
+        <v>-90.567400000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>53735.138922</v>
+        <v>53735.138921999998</v>
       </c>
       <c r="AF24" s="1">
         <v>14.926427</v>
       </c>
       <c r="AG24" s="1">
-        <v>1221.390000</v>
+        <v>1221.3900000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.197000</v>
+        <v>-86.197000000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>53745.624845</v>
+        <v>53745.624844999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>14.929340</v>
+        <v>14.92934</v>
       </c>
       <c r="AL24" s="1">
-        <v>1228.530000</v>
+        <v>1228.53</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.841500</v>
+        <v>-89.841499999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>53756.532366</v>
+        <v>53756.532365999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>14.932370</v>
+        <v>14.932370000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1236.590000</v>
+        <v>1236.5899999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.106000</v>
+        <v>-102.10599999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>53767.721119</v>
+        <v>53767.721119000002</v>
       </c>
       <c r="AU24" s="1">
         <v>14.935478</v>
       </c>
       <c r="AV24" s="1">
-        <v>1246.720000</v>
+        <v>1246.72</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.725000</v>
+        <v>-121.72499999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>53778.732306</v>
+        <v>53778.732305999998</v>
       </c>
       <c r="AZ24" s="1">
         <v>14.938537</v>
       </c>
       <c r="BA24" s="1">
-        <v>1255.260000</v>
+        <v>1255.26</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.420000</v>
+        <v>-139.41999999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>53789.671462</v>
+        <v>53789.671461999998</v>
       </c>
       <c r="BE24" s="1">
         <v>14.941575</v>
       </c>
       <c r="BF24" s="1">
-        <v>1296.020000</v>
+        <v>1296.02</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.074000</v>
+        <v>-222.07400000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>53800.426325</v>
@@ -6315,240 +6731,240 @@
         <v>14.944563</v>
       </c>
       <c r="BK24" s="1">
-        <v>1366.700000</v>
+        <v>1366.7</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.287000</v>
+        <v>-359.28699999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>53810.695535</v>
+        <v>53810.695534999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>14.947415</v>
+        <v>14.947414999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1482.470000</v>
+        <v>1482.47</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-582.026000</v>
+        <v>-582.02599999999995</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>53821.778105</v>
+        <v>53821.778104999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>14.950494</v>
+        <v>14.950494000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1616.160000</v>
+        <v>1616.16</v>
       </c>
       <c r="BV24" s="1">
-        <v>-832.695000</v>
+        <v>-832.69500000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>53832.654414</v>
+        <v>53832.654413999997</v>
       </c>
       <c r="BY24" s="1">
-        <v>14.953515</v>
+        <v>14.953514999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1769.700000</v>
+        <v>1769.7</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1105.780000</v>
+        <v>-1105.78</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>53845.752729</v>
       </c>
       <c r="CD24" s="1">
-        <v>14.957154</v>
+        <v>14.957153999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2190.730000</v>
+        <v>2190.73</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1763.820000</v>
+        <v>-1763.82</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>53672.157422</v>
+        <v>53672.157421999997</v>
       </c>
       <c r="B25" s="1">
-        <v>14.908933</v>
+        <v>14.908932999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1145.690000</v>
+        <v>1145.69</v>
       </c>
       <c r="D25" s="1">
-        <v>-255.395000</v>
+        <v>-255.39500000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>53682.624497</v>
+        <v>53682.624496999997</v>
       </c>
       <c r="G25" s="1">
-        <v>14.911840</v>
+        <v>14.91184</v>
       </c>
       <c r="H25" s="1">
-        <v>1166.780000</v>
+        <v>1166.78</v>
       </c>
       <c r="I25" s="1">
-        <v>-214.958000</v>
+        <v>-214.958</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>53693.080351</v>
+        <v>53693.080350999997</v>
       </c>
       <c r="L25" s="1">
         <v>14.914745</v>
       </c>
       <c r="M25" s="1">
-        <v>1193.750000</v>
+        <v>1193.75</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.844000</v>
+        <v>-149.84399999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>53703.648449</v>
       </c>
       <c r="Q25" s="1">
-        <v>14.917680</v>
+        <v>14.917680000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1201.880000</v>
+        <v>1201.8800000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-128.016000</v>
+        <v>-128.01599999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>53714.468646</v>
+        <v>53714.468646000001</v>
       </c>
       <c r="V25" s="1">
         <v>14.920686</v>
       </c>
       <c r="W25" s="1">
-        <v>1209.130000</v>
+        <v>1209.1300000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.486000</v>
+        <v>-107.486</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>53725.030951</v>
+        <v>53725.030951000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>14.923620</v>
+        <v>14.92362</v>
       </c>
       <c r="AB25" s="1">
-        <v>1216.810000</v>
+        <v>1216.81</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.507200</v>
+        <v>-90.507199999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>53735.483146</v>
+        <v>53735.483145999999</v>
       </c>
       <c r="AF25" s="1">
         <v>14.926523</v>
       </c>
       <c r="AG25" s="1">
-        <v>1221.360000</v>
+        <v>1221.3599999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.227800</v>
+        <v>-86.227800000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>53745.975516</v>
+        <v>53745.975515999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>14.929438</v>
+        <v>14.929437999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1228.530000</v>
+        <v>1228.53</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.775700</v>
+        <v>-89.775700000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>53756.894976</v>
+        <v>53756.894976000003</v>
       </c>
       <c r="AP25" s="1">
         <v>14.932471</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1236.580000</v>
+        <v>1236.58</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.095000</v>
+        <v>-102.095</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>53768.395679</v>
+        <v>53768.395679000001</v>
       </c>
       <c r="AU25" s="1">
         <v>14.935665</v>
       </c>
       <c r="AV25" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.734000</v>
+        <v>-121.73399999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>53779.390992</v>
+        <v>53779.390992000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>14.938720</v>
+        <v>14.93872</v>
       </c>
       <c r="BA25" s="1">
-        <v>1255.260000</v>
+        <v>1255.26</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.417000</v>
+        <v>-139.417</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>53790.071485</v>
@@ -6557,13 +6973,13 @@
         <v>14.941687</v>
       </c>
       <c r="BF25" s="1">
-        <v>1296.020000</v>
+        <v>1296.02</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.067000</v>
+        <v>-222.06700000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>53800.789397</v>
@@ -6572,58 +6988,58 @@
         <v>14.944664</v>
       </c>
       <c r="BK25" s="1">
-        <v>1366.680000</v>
+        <v>1366.68</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.189000</v>
+        <v>-359.18900000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>53811.117126</v>
+        <v>53811.117125999997</v>
       </c>
       <c r="BO25" s="1">
         <v>14.947533</v>
       </c>
       <c r="BP25" s="1">
-        <v>1482.500000</v>
+        <v>1482.5</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-582.032000</v>
+        <v>-582.03200000000004</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>53822.189287</v>
+        <v>53822.189287000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>14.950608</v>
+        <v>14.950608000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1616.130000</v>
+        <v>1616.13</v>
       </c>
       <c r="BV25" s="1">
-        <v>-832.699000</v>
+        <v>-832.69899999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>53833.073498</v>
+        <v>53833.073497999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>14.953632</v>
+        <v>14.953632000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1769.830000</v>
+        <v>1769.83</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1105.750000</v>
+        <v>-1105.75</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>53846.304807</v>
@@ -6632,150 +7048,150 @@
         <v>14.957307</v>
       </c>
       <c r="CE25" s="1">
-        <v>2191.560000</v>
+        <v>2191.56</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1763.280000</v>
+        <v>-1763.28</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>53672.500653</v>
+        <v>53672.500653000003</v>
       </c>
       <c r="B26" s="1">
-        <v>14.909028</v>
+        <v>14.909027999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1145.340000</v>
+        <v>1145.3399999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-255.309000</v>
+        <v>-255.309</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>53682.971200</v>
+        <v>53682.9712</v>
       </c>
       <c r="G26" s="1">
-        <v>14.911936</v>
+        <v>14.911936000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1166.900000</v>
+        <v>1166.9000000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-214.248000</v>
+        <v>-214.24799999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>53693.772578</v>
+        <v>53693.772577999996</v>
       </c>
       <c r="L26" s="1">
         <v>14.914937</v>
       </c>
       <c r="M26" s="1">
-        <v>1193.880000</v>
+        <v>1193.8800000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.718000</v>
+        <v>-149.71799999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>53704.345841</v>
+        <v>53704.345841000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>14.917874</v>
+        <v>14.917873999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1201.850000</v>
+        <v>1201.8499999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-128.068000</v>
+        <v>-128.06800000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>53714.813899</v>
+        <v>53714.813899000001</v>
       </c>
       <c r="V26" s="1">
-        <v>14.920782</v>
+        <v>14.920782000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1209.010000</v>
+        <v>1209.01</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.406000</v>
+        <v>-107.40600000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>53725.378152</v>
+        <v>53725.378151999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>14.923716</v>
+        <v>14.923716000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1216.630000</v>
+        <v>1216.6300000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.593200</v>
+        <v>-90.593199999999996</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>53735.825883</v>
+        <v>53735.825882999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>14.926618</v>
+        <v>14.926617999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1221.390000</v>
+        <v>1221.3900000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.241300</v>
+        <v>-86.241299999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>53746.631255</v>
       </c>
       <c r="AK26" s="1">
-        <v>14.929620</v>
+        <v>14.92962</v>
       </c>
       <c r="AL26" s="1">
-        <v>1228.520000</v>
+        <v>1228.52</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.790800</v>
+        <v>-89.790800000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>53757.556145</v>
+        <v>53757.556145000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>14.932654</v>
+        <v>14.932653999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1236.600000</v>
+        <v>1236.5999999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.108000</v>
+        <v>-102.108</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>53768.847534</v>
@@ -6784,120 +7200,121 @@
         <v>14.935791</v>
       </c>
       <c r="AV26" s="1">
-        <v>1246.670000</v>
+        <v>1246.67</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.725000</v>
+        <v>-121.72499999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>53779.840900</v>
+        <v>53779.840900000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>14.938845</v>
+        <v>14.938845000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1255.260000</v>
+        <v>1255.26</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.421000</v>
+        <v>-139.42099999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>53790.460210</v>
+        <v>53790.460209999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>14.941795</v>
+        <v>14.941795000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1296.060000</v>
+        <v>1296.06</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.058000</v>
+        <v>-222.05799999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>53801.162419</v>
       </c>
       <c r="BJ26" s="1">
-        <v>14.944767</v>
+        <v>14.944767000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1366.760000</v>
+        <v>1366.76</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.177000</v>
+        <v>-359.17700000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>53811.512407</v>
+        <v>53811.512407000002</v>
       </c>
       <c r="BO26" s="1">
         <v>14.947642</v>
       </c>
       <c r="BP26" s="1">
-        <v>1482.500000</v>
+        <v>1482.5</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-581.986000</v>
+        <v>-581.98599999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>53822.623815</v>
+        <v>53822.623814999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>14.950729</v>
+        <v>14.950729000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1616.120000</v>
+        <v>1616.12</v>
       </c>
       <c r="BV26" s="1">
-        <v>-832.670000</v>
+        <v>-832.67</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>53833.500909</v>
+        <v>53833.500909000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>14.953750</v>
+        <v>14.953749999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1769.680000</v>
+        <v>1769.68</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1105.760000</v>
+        <v>-1105.76</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>53846.832527</v>
+        <v>53846.832526999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>14.957453</v>
+        <v>14.957452999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2189.860000</v>
+        <v>2189.86</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1764.570000</v>
+        <v>-1764.57</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>